--- a/tmee/data_in/data_dictionary/indicator_dictionary_TM_v8.xlsx
+++ b/tmee/data_in/data_dictionary/indicator_dictionary_TM_v8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16f1c7c3db740efb/UNICEF/TransMonEE/data-etl/tmee/data_in/data_dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1038" documentId="8_{C78D5DBA-9509-40B0-B726-8EC80EC5AE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FDA6DCE4-73B5-4EFC-BB3B-6C92FF3A9B47}"/>
+  <xr:revisionPtr revIDLastSave="1058" documentId="8_{C78D5DBA-9509-40B0-B726-8EC80EC5AE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{319250F9-916A-463E-9AF0-737BE134983E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8993" uniqueCount="4218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9002" uniqueCount="4220">
   <si>
     <t>snapshot_id</t>
   </si>
@@ -12698,6 +12698,12 @@
   </si>
   <si>
     <t>Percentage (by sex, age groups and wealth quintile)</t>
+  </si>
+  <si>
+    <t>Not reporting data for ECARO as of 07/07/2021</t>
+  </si>
+  <si>
+    <t>Indicator without data for the region as of 07/07/2021</t>
   </si>
 </sst>
 </file>
@@ -13497,7 +13503,7 @@
   <dimension ref="A1:L386"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="F316" sqref="F316:G316"/>
+      <selection activeCell="G309" sqref="G309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23949,8 +23955,13 @@
       <c r="E307" s="1">
         <v>2021</v>
       </c>
-      <c r="F307" s="1"/>
-      <c r="G307" s="1"/>
+      <c r="F307" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="G307" s="1" t="str">
+        <f>VLOOKUP(F307,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>-</v>
+      </c>
       <c r="H307" s="1" t="s">
         <v>3516</v>
       </c>
@@ -23978,8 +23989,13 @@
       <c r="E308" s="1">
         <v>2021</v>
       </c>
-      <c r="F308" s="1"/>
-      <c r="G308" s="1"/>
+      <c r="F308" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="G308" s="1" t="str">
+        <f>VLOOKUP(F308,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>-</v>
+      </c>
       <c r="H308" s="1" t="s">
         <v>3517</v>
       </c>
@@ -27145,8 +27161,8 @@
   <dimension ref="A1:M832"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E370" sqref="E370"/>
+      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M362" sqref="M362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34605,7 +34621,7 @@
       <c r="I352"/>
       <c r="J352"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A353" s="16" t="s">
         <v>1472</v>
       </c>
@@ -34627,7 +34643,7 @@
       <c r="I353"/>
       <c r="J353"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A354" s="16" t="s">
         <v>1474</v>
       </c>
@@ -34649,7 +34665,7 @@
       <c r="I354"/>
       <c r="J354"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A355" s="16" t="s">
         <v>1476</v>
       </c>
@@ -34671,7 +34687,7 @@
       <c r="I355"/>
       <c r="J355"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A356" s="16" t="s">
         <v>1478</v>
       </c>
@@ -34693,7 +34709,7 @@
       <c r="I356"/>
       <c r="J356"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A357" s="16" t="s">
         <v>1480</v>
       </c>
@@ -34715,7 +34731,7 @@
       <c r="I357"/>
       <c r="J357"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A358" s="16" t="s">
         <v>1482</v>
       </c>
@@ -34737,7 +34753,7 @@
       <c r="I358"/>
       <c r="J358"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A359" s="16" t="s">
         <v>1484</v>
       </c>
@@ -34759,7 +34775,7 @@
       <c r="I359"/>
       <c r="J359"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A360" s="16" t="s">
         <v>1486</v>
       </c>
@@ -34781,7 +34797,7 @@
       <c r="I360"/>
       <c r="J360"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A361" s="16" t="s">
         <v>1488</v>
       </c>
@@ -34802,8 +34818,11 @@
       </c>
       <c r="I361"/>
       <c r="J361"/>
-    </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="M361" s="37" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A362" s="16" t="s">
         <v>1490</v>
       </c>
@@ -34824,8 +34843,11 @@
       </c>
       <c r="I362"/>
       <c r="J362"/>
-    </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="M362" s="37" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A363" s="16" t="s">
         <v>1492</v>
       </c>
@@ -34847,7 +34869,7 @@
       <c r="I363"/>
       <c r="J363"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A364" s="16" t="s">
         <v>1494</v>
       </c>
@@ -34869,7 +34891,7 @@
       <c r="I364"/>
       <c r="J364"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A365" s="16" t="s">
         <v>1496</v>
       </c>
@@ -34891,7 +34913,7 @@
       <c r="I365"/>
       <c r="J365"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A366" s="16" t="s">
         <v>1498</v>
       </c>
@@ -34913,7 +34935,7 @@
       <c r="I366"/>
       <c r="J366"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A367" s="16" t="s">
         <v>1500</v>
       </c>
@@ -34935,7 +34957,7 @@
       <c r="I367"/>
       <c r="J367"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A368" s="16" t="s">
         <v>1501</v>
       </c>
@@ -40847,8 +40869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42075,59 +42097,74 @@
         <v>624</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>2464</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>2465</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>2466</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>2467</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>2468</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>2469</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>2470</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="H107" s="25" t="s">
+        <v>2019</v>
+      </c>
+      <c r="I107" t="s">
+        <v>4219</v>
       </c>
     </row>
   </sheetData>
@@ -42141,7 +42178,7 @@
   <dimension ref="A1:K394"/>
   <sheetViews>
     <sheetView topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="D318" sqref="D318"/>
+      <selection activeCell="I313" sqref="I313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/tmee/data_in/data_dictionary/indicator_dictionary_TM_v8.xlsx
+++ b/tmee/data_in/data_dictionary/indicator_dictionary_TM_v8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16f1c7c3db740efb/UNICEF/TransMonEE/data-etl/tmee/data_in/data_dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="353" documentId="13_ncr:1_{D6446E56-D0B6-414D-A4F6-23CFDA12394E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7A7D36D9-FFFC-4194-BEEE-A9CD8C3BC347}"/>
+  <xr:revisionPtr revIDLastSave="364" documentId="13_ncr:1_{D6446E56-D0B6-414D-A4F6-23CFDA12394E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F08FC8EA-0E32-4728-8D9A-5C1DD316BCAC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9473" uniqueCount="4409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9473" uniqueCount="4418">
   <si>
     <t>snapshot_id</t>
   </si>
@@ -13271,6 +13271,33 @@
   </si>
   <si>
     <t>US$</t>
+  </si>
+  <si>
+    <t>SDG: SG_STT_NSDSFND</t>
+  </si>
+  <si>
+    <t>SDG: SG_STT_NSDSIMPL</t>
+  </si>
+  <si>
+    <t>SDG: SG_STT_NSDSFDGVT</t>
+  </si>
+  <si>
+    <t>SDG: SG_STT_NSDSFDDNR</t>
+  </si>
+  <si>
+    <t>SDG: SG_STT_NSDSFDOTHR</t>
+  </si>
+  <si>
+    <t>SDG: SG_STT_CAPTY</t>
+  </si>
+  <si>
+    <t>SDG: SG_REG_CENSUSN</t>
+  </si>
+  <si>
+    <t>SDG: SG_REG_BRTH90N</t>
+  </si>
+  <si>
+    <t>SDG: SG_REG_DETH75N</t>
   </si>
 </sst>
 </file>
@@ -14069,7 +14096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
       <selection activeCell="F376" sqref="F376:G376"/>
     </sheetView>
   </sheetViews>
@@ -26608,7 +26635,7 @@
       </c>
       <c r="I368" s="25" t="str">
         <f>VLOOKUP(H368,Source!$A$2:$G$452,3,FALSE)</f>
-        <v>CR_SG_STT_NSDSFND</v>
+        <v>SDG: SG_STT_NSDSFND</v>
       </c>
       <c r="K368" s="1"/>
     </row>
@@ -26642,7 +26669,7 @@
       </c>
       <c r="I369" s="25" t="str">
         <f>VLOOKUP(H369,Source!$A$2:$G$452,3,FALSE)</f>
-        <v>CR_SG_STT_NSDSIMPL</v>
+        <v>SDG: SG_STT_NSDSIMPL</v>
       </c>
       <c r="K369" s="1"/>
     </row>
@@ -26676,7 +26703,7 @@
       </c>
       <c r="I370" s="25" t="str">
         <f>VLOOKUP(H370,Source!$A$2:$G$452,3,FALSE)</f>
-        <v>CR_SG_STT_NSDSFDGVT</v>
+        <v>SDG: SG_STT_NSDSFDGVT</v>
       </c>
       <c r="K370" s="1"/>
     </row>
@@ -26710,7 +26737,7 @@
       </c>
       <c r="I371" s="25" t="str">
         <f>VLOOKUP(H371,Source!$A$2:$G$452,3,FALSE)</f>
-        <v>CR_SG_STT_NSDSFDDNR</v>
+        <v>SDG: SG_STT_NSDSFDDNR</v>
       </c>
       <c r="K371" s="1"/>
     </row>
@@ -26744,7 +26771,7 @@
       </c>
       <c r="I372" s="25" t="str">
         <f>VLOOKUP(H372,Source!$A$2:$G$452,3,FALSE)</f>
-        <v>CR_SG_STT_NSDSFDOTHR</v>
+        <v>SDG: SG_STT_NSDSFDOTHR</v>
       </c>
       <c r="K372" s="1"/>
     </row>
@@ -26778,7 +26805,7 @@
       </c>
       <c r="I373" s="25" t="str">
         <f>VLOOKUP(H373,Source!$A$2:$G$452,3,FALSE)</f>
-        <v>CR_SG_STT_CAPTY</v>
+        <v>SDG: SG_STT_CAPTY</v>
       </c>
       <c r="K373" s="1"/>
     </row>
@@ -26812,7 +26839,7 @@
       </c>
       <c r="I374" s="25" t="str">
         <f>VLOOKUP(H374,Source!$A$2:$G$452,3,FALSE)</f>
-        <v>CR_SG_REG_CENSUSN</v>
+        <v>SDG: SG_REG_CENSUSN</v>
       </c>
       <c r="K374" s="1"/>
     </row>
@@ -26846,7 +26873,7 @@
       </c>
       <c r="I375" s="25" t="str">
         <f>VLOOKUP(H375,Source!$A$2:$G$452,3,FALSE)</f>
-        <v>CR_SG_REG_BRTH90N</v>
+        <v>SDG: SG_REG_BRTH90N</v>
       </c>
       <c r="K375" s="1"/>
     </row>
@@ -26880,7 +26907,7 @@
       </c>
       <c r="I376" s="25" t="str">
         <f>VLOOKUP(H376,Source!$A$2:$G$452,3,FALSE)</f>
-        <v>CR_SG_REG_DETH75N</v>
+        <v>SDG: SG_REG_DETH75N</v>
       </c>
       <c r="K376" s="1"/>
     </row>
@@ -44200,7 +44227,7 @@
   <dimension ref="A1:K419"/>
   <sheetViews>
     <sheetView topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="E358" sqref="E358"/>
+      <selection activeCell="D382" sqref="D382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -55015,7 +55042,7 @@
         <v>639</v>
       </c>
       <c r="C374" s="60" t="s">
-        <v>4266</v>
+        <v>4409</v>
       </c>
       <c r="D374" s="24" t="s">
         <v>4286</v>
@@ -55044,7 +55071,7 @@
         <v>639</v>
       </c>
       <c r="C375" s="60" t="s">
-        <v>4268</v>
+        <v>4410</v>
       </c>
       <c r="D375" s="24" t="s">
         <v>4288</v>
@@ -55073,7 +55100,7 @@
         <v>639</v>
       </c>
       <c r="C376" s="60" t="s">
-        <v>4270</v>
+        <v>4411</v>
       </c>
       <c r="D376" s="24" t="s">
         <v>4401</v>
@@ -55102,7 +55129,7 @@
         <v>639</v>
       </c>
       <c r="C377" s="60" t="s">
-        <v>4272</v>
+        <v>4412</v>
       </c>
       <c r="D377" s="24" t="s">
         <v>4289</v>
@@ -55131,7 +55158,7 @@
         <v>639</v>
       </c>
       <c r="C378" s="60" t="s">
-        <v>4274</v>
+        <v>4413</v>
       </c>
       <c r="D378" s="24" t="s">
         <v>4402</v>
@@ -55160,7 +55187,7 @@
         <v>639</v>
       </c>
       <c r="C379" s="60" t="s">
-        <v>4275</v>
+        <v>4414</v>
       </c>
       <c r="D379" s="24" t="s">
         <v>4291</v>
@@ -55189,7 +55216,7 @@
         <v>639</v>
       </c>
       <c r="C380" s="60" t="s">
-        <v>4278</v>
+        <v>4415</v>
       </c>
       <c r="D380" s="24" t="s">
         <v>4403</v>
@@ -55218,7 +55245,7 @@
         <v>639</v>
       </c>
       <c r="C381" s="60" t="s">
-        <v>4280</v>
+        <v>4416</v>
       </c>
       <c r="D381" s="24" t="s">
         <v>4292</v>
@@ -55247,7 +55274,7 @@
         <v>639</v>
       </c>
       <c r="C382" s="60" t="s">
-        <v>4282</v>
+        <v>4417</v>
       </c>
       <c r="D382" s="24" t="s">
         <v>4293</v>

--- a/tmee/data_in/data_dictionary/indicator_dictionary_TM_v8.xlsx
+++ b/tmee/data_in/data_dictionary/indicator_dictionary_TM_v8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16f1c7c3db740efb/UNICEF/TransMonEE/data-etl/tmee/data_in/data_dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1017" documentId="13_ncr:1_{D6446E56-D0B6-414D-A4F6-23CFDA12394E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{480109FD-6AC3-4572-8CDD-6A0676D0CB6E}"/>
+  <xr:revisionPtr revIDLastSave="1036" documentId="13_ncr:1_{D6446E56-D0B6-414D-A4F6-23CFDA12394E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BDFEA496-3BAC-4157-8548-6CEAE2162055}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Snapshot" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9839" uniqueCount="4549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9838" uniqueCount="4549">
   <si>
     <t>snapshot_id</t>
   </si>
@@ -11974,12 +11974,6 @@
     <t>https://sdmx.data.unicef.org/ws/public/sdmxapi/rest/data/MG/.MG_INTNL_MG_CNTRY_DEST..SH_NAT_POP</t>
   </si>
   <si>
-    <t>HELIX: MG_INTNL_MG_CNTRY_DEST_PS</t>
-  </si>
-  <si>
-    <t>HELIX: MG_INTNL_MG_CNTRY_DEST_RT</t>
-  </si>
-  <si>
     <t>Total public social expenditure (% of GDP)</t>
   </si>
   <si>
@@ -13528,12 +13522,6 @@
     <t>Total adolescent population aged 10-19 years</t>
   </si>
   <si>
-    <t>[10:19]</t>
-  </si>
-  <si>
-    <t>[0:17]</t>
-  </si>
-  <si>
     <t>Children share of Population</t>
   </si>
   <si>
@@ -13675,22 +13663,34 @@
     <t>Calculated from UNPD estimations</t>
   </si>
   <si>
-    <t>calc_indicator_sum</t>
-  </si>
-  <si>
-    <t>calc_indicator_prop</t>
-  </si>
-  <si>
     <t>Numerator</t>
   </si>
   <si>
     <t>Denominator</t>
   </si>
   <si>
-    <t>[0:17, 0:]</t>
-  </si>
-  <si>
     <t>Sum of single age population</t>
+  </si>
+  <si>
+    <t>Comments_t</t>
+  </si>
+  <si>
+    <t>calc_indicator_rate</t>
+  </si>
+  <si>
+    <t>calc_age_sum</t>
+  </si>
+  <si>
+    <t>0;17</t>
+  </si>
+  <si>
+    <t>10;19</t>
+  </si>
+  <si>
+    <t>Helix: MG_INTNL_MG_CNTRY_DEST_PS</t>
+  </si>
+  <si>
+    <t>Helix: MG_INTNL_MG_CNTRY_DEST_RT</t>
   </si>
 </sst>
 </file>
@@ -13991,7 +13991,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -14179,6 +14179,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14511,8 +14514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L430"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26660,7 +26663,7 @@
       </c>
       <c r="I356" s="25" t="str">
         <f>VLOOKUP(H356,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>HELIX: MG_INTNL_MG_CNTRY_DEST_PS</v>
+        <v>Helix: MG_INTNL_MG_CNTRY_DEST_PS</v>
       </c>
       <c r="K356" s="1"/>
     </row>
@@ -26694,7 +26697,7 @@
       </c>
       <c r="I357" s="25" t="str">
         <f>VLOOKUP(H357,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>HELIX: MG_INTNL_MG_CNTRY_DEST_RT</v>
+        <v>Helix: MG_INTNL_MG_CNTRY_DEST_RT</v>
       </c>
       <c r="K357" s="1"/>
     </row>
@@ -27652,7 +27655,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
-        <v>4054</v>
+        <v>4052</v>
       </c>
       <c r="B386" s="16" t="s">
         <v>1593</v>
@@ -27686,7 +27689,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
-        <v>4055</v>
+        <v>4053</v>
       </c>
       <c r="B387" s="16" t="s">
         <v>1595</v>
@@ -27720,7 +27723,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
-        <v>4056</v>
+        <v>4054</v>
       </c>
       <c r="B388" s="16" t="s">
         <v>1597</v>
@@ -27744,7 +27747,7 @@
         <v>PCNT</v>
       </c>
       <c r="H388" s="1" t="s">
-        <v>4077</v>
+        <v>4075</v>
       </c>
       <c r="I388" s="25" t="str">
         <f>VLOOKUP(H388,Source!$A$2:$G$471,3,FALSE)</f>
@@ -27754,7 +27757,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
-        <v>4057</v>
+        <v>4055</v>
       </c>
       <c r="B389" s="16" t="s">
         <v>1599</v>
@@ -27778,7 +27781,7 @@
         <v>PCNT</v>
       </c>
       <c r="H389" s="1" t="s">
-        <v>4078</v>
+        <v>4076</v>
       </c>
       <c r="I389" s="25" t="str">
         <f>VLOOKUP(H389,Source!$A$2:$G$471,3,FALSE)</f>
@@ -27788,7 +27791,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
-        <v>4058</v>
+        <v>4056</v>
       </c>
       <c r="B390" s="16" t="s">
         <v>1601</v>
@@ -27812,7 +27815,7 @@
         <v>PCNT</v>
       </c>
       <c r="H390" s="1" t="s">
-        <v>4079</v>
+        <v>4077</v>
       </c>
       <c r="I390" s="25" t="str">
         <f>VLOOKUP(H390,Source!$A$2:$G$471,3,FALSE)</f>
@@ -27822,7 +27825,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
-        <v>4059</v>
+        <v>4057</v>
       </c>
       <c r="B391" s="16" t="s">
         <v>1603</v>
@@ -27846,7 +27849,7 @@
         <v>PCNT</v>
       </c>
       <c r="H391" s="1" t="s">
-        <v>4080</v>
+        <v>4078</v>
       </c>
       <c r="I391" s="25" t="str">
         <f>VLOOKUP(H391,Source!$A$2:$G$471,3,FALSE)</f>
@@ -27856,7 +27859,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
-        <v>4060</v>
+        <v>4058</v>
       </c>
       <c r="B392" s="16" t="s">
         <v>1605</v>
@@ -27880,7 +27883,7 @@
         <v>PCNT</v>
       </c>
       <c r="H392" s="1" t="s">
-        <v>4081</v>
+        <v>4079</v>
       </c>
       <c r="I392" s="25" t="str">
         <f>VLOOKUP(H392,Source!$A$2:$G$471,3,FALSE)</f>
@@ -27890,7 +27893,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
-        <v>4061</v>
+        <v>4059</v>
       </c>
       <c r="B393" s="16" t="s">
         <v>1607</v>
@@ -27914,7 +27917,7 @@
         <v>PCNT</v>
       </c>
       <c r="H393" s="1" t="s">
-        <v>4082</v>
+        <v>4080</v>
       </c>
       <c r="I393" s="25" t="str">
         <f>VLOOKUP(H393,Source!$A$2:$G$471,3,FALSE)</f>
@@ -27924,7 +27927,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
-        <v>4062</v>
+        <v>4060</v>
       </c>
       <c r="B394" s="16" t="s">
         <v>1657</v>
@@ -27948,7 +27951,7 @@
         <v>PCNT</v>
       </c>
       <c r="H394" s="1" t="s">
-        <v>4080</v>
+        <v>4078</v>
       </c>
       <c r="I394" s="25" t="str">
         <f>VLOOKUP(H394,Source!$A$2:$G$471,3,FALSE)</f>
@@ -27958,7 +27961,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
-        <v>4063</v>
+        <v>4061</v>
       </c>
       <c r="B395" s="16" t="s">
         <v>1659</v>
@@ -27982,7 +27985,7 @@
         <v>PCNT</v>
       </c>
       <c r="H395" s="1" t="s">
-        <v>4081</v>
+        <v>4079</v>
       </c>
       <c r="I395" s="25" t="str">
         <f>VLOOKUP(H395,Source!$A$2:$G$471,3,FALSE)</f>
@@ -27992,7 +27995,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
-        <v>4064</v>
+        <v>4062</v>
       </c>
       <c r="B396" s="16" t="s">
         <v>1661</v>
@@ -28016,7 +28019,7 @@
         <v>PCNT</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>4082</v>
+        <v>4080</v>
       </c>
       <c r="I396" s="25" t="str">
         <f>VLOOKUP(H396,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28026,7 +28029,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
-        <v>4065</v>
+        <v>4063</v>
       </c>
       <c r="B397" s="16" t="s">
         <v>1663</v>
@@ -28050,7 +28053,7 @@
         <v>PCNT</v>
       </c>
       <c r="H397" s="1" t="s">
-        <v>4083</v>
+        <v>4081</v>
       </c>
       <c r="I397" s="25" t="str">
         <f>VLOOKUP(H397,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28060,7 +28063,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
-        <v>4066</v>
+        <v>4064</v>
       </c>
       <c r="B398" s="16" t="s">
         <v>1665</v>
@@ -28084,7 +28087,7 @@
         <v>PCNT</v>
       </c>
       <c r="H398" s="1" t="s">
-        <v>4084</v>
+        <v>4082</v>
       </c>
       <c r="I398" s="25" t="str">
         <f>VLOOKUP(H398,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28094,7 +28097,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
-        <v>4067</v>
+        <v>4065</v>
       </c>
       <c r="B399" s="16" t="s">
         <v>1667</v>
@@ -28118,7 +28121,7 @@
         <v>PCNT</v>
       </c>
       <c r="H399" s="1" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
       <c r="I399" s="25" t="str">
         <f>VLOOKUP(H399,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28128,7 +28131,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
-        <v>4068</v>
+        <v>4066</v>
       </c>
       <c r="B400" s="16" t="s">
         <v>1669</v>
@@ -28152,7 +28155,7 @@
         <v>PCNT</v>
       </c>
       <c r="H400" s="1" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
       <c r="I400" s="25" t="str">
         <f>VLOOKUP(H400,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28162,7 +28165,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
-        <v>4069</v>
+        <v>4067</v>
       </c>
       <c r="B401" s="16" t="s">
         <v>1677</v>
@@ -28186,7 +28189,7 @@
         <v>PCNT</v>
       </c>
       <c r="H401" s="1" t="s">
-        <v>4087</v>
+        <v>4085</v>
       </c>
       <c r="I401" s="25" t="str">
         <f>VLOOKUP(H401,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28196,7 +28199,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
-        <v>4070</v>
+        <v>4068</v>
       </c>
       <c r="B402" s="16" t="s">
         <v>1679</v>
@@ -28220,7 +28223,7 @@
         <v>NUMBER</v>
       </c>
       <c r="H402" s="1" t="s">
-        <v>4088</v>
+        <v>4086</v>
       </c>
       <c r="I402" s="25" t="str">
         <f>VLOOKUP(H402,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28230,7 +28233,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
-        <v>4071</v>
+        <v>4069</v>
       </c>
       <c r="B403" s="16" t="s">
         <v>1681</v>
@@ -28254,7 +28257,7 @@
         <v>RATE_100000</v>
       </c>
       <c r="H403" s="1" t="s">
-        <v>4089</v>
+        <v>4087</v>
       </c>
       <c r="I403" s="25" t="str">
         <f>VLOOKUP(H403,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28263,7 +28266,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
-        <v>4072</v>
+        <v>4070</v>
       </c>
       <c r="B404" s="16" t="s">
         <v>1683</v>
@@ -28287,7 +28290,7 @@
         <v>PCNT</v>
       </c>
       <c r="H404" s="1" t="s">
-        <v>4090</v>
+        <v>4088</v>
       </c>
       <c r="I404" s="25" t="str">
         <f>VLOOKUP(H404,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28296,7 +28299,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
-        <v>4073</v>
+        <v>4071</v>
       </c>
       <c r="B405" s="16" t="s">
         <v>1685</v>
@@ -28320,7 +28323,7 @@
         <v>NUMBER</v>
       </c>
       <c r="H405" s="1" t="s">
-        <v>4091</v>
+        <v>4089</v>
       </c>
       <c r="I405" s="25" t="str">
         <f>VLOOKUP(H405,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28329,7 +28332,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
-        <v>4074</v>
+        <v>4072</v>
       </c>
       <c r="B406" s="16" t="s">
         <v>1687</v>
@@ -28353,7 +28356,7 @@
         <v>NUMBER</v>
       </c>
       <c r="H406" s="1" t="s">
-        <v>4092</v>
+        <v>4090</v>
       </c>
       <c r="I406" s="25" t="str">
         <f>VLOOKUP(H406,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28362,7 +28365,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
-        <v>4075</v>
+        <v>4073</v>
       </c>
       <c r="B407" s="16" t="s">
         <v>1689</v>
@@ -28386,7 +28389,7 @@
         <v>NUMBER</v>
       </c>
       <c r="H407" s="1" t="s">
-        <v>4093</v>
+        <v>4091</v>
       </c>
       <c r="I407" s="25" t="str">
         <f>VLOOKUP(H407,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28395,7 +28398,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
-        <v>4076</v>
+        <v>4074</v>
       </c>
       <c r="B408" s="16" t="s">
         <v>1691</v>
@@ -28419,7 +28422,7 @@
         <v>NUMBER</v>
       </c>
       <c r="H408" s="1" t="s">
-        <v>4094</v>
+        <v>4092</v>
       </c>
       <c r="I408" s="25" t="str">
         <f>VLOOKUP(H408,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28428,7 +28431,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
-        <v>4129</v>
+        <v>4127</v>
       </c>
       <c r="B409" s="16" t="s">
         <v>1693</v>
@@ -28452,7 +28455,7 @@
         <v>NUMBER</v>
       </c>
       <c r="H409" s="1" t="s">
-        <v>4095</v>
+        <v>4093</v>
       </c>
       <c r="I409" s="25" t="str">
         <f>VLOOKUP(H409,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28461,7 +28464,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
-        <v>4130</v>
+        <v>4128</v>
       </c>
       <c r="B410" s="16" t="s">
         <v>1695</v>
@@ -28485,7 +28488,7 @@
         <v>NUMBER</v>
       </c>
       <c r="H410" s="1" t="s">
-        <v>4096</v>
+        <v>4094</v>
       </c>
       <c r="I410" s="25" t="str">
         <f>VLOOKUP(H410,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28494,7 +28497,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
-        <v>4213</v>
+        <v>4211</v>
       </c>
       <c r="B411" s="16" t="s">
         <v>1701</v>
@@ -28518,7 +28521,7 @@
         <v>RATE_100</v>
       </c>
       <c r="H411" s="1" t="s">
-        <v>4097</v>
+        <v>4095</v>
       </c>
       <c r="I411" s="25" t="str">
         <f>VLOOKUP(H411,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28527,7 +28530,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
-        <v>4214</v>
+        <v>4212</v>
       </c>
       <c r="B412" s="16" t="s">
         <v>516</v>
@@ -28551,7 +28554,7 @@
         <v>PCNT</v>
       </c>
       <c r="H412" s="1" t="s">
-        <v>4098</v>
+        <v>4096</v>
       </c>
       <c r="I412" s="25" t="str">
         <f>VLOOKUP(H412,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28560,7 +28563,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
-        <v>4215</v>
+        <v>4213</v>
       </c>
       <c r="B413" s="16" t="s">
         <v>520</v>
@@ -28584,7 +28587,7 @@
         <v>PCNT</v>
       </c>
       <c r="H413" s="1" t="s">
-        <v>4099</v>
+        <v>4097</v>
       </c>
       <c r="I413" s="25" t="str">
         <f>VLOOKUP(H413,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28593,7 +28596,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
-        <v>4216</v>
+        <v>4214</v>
       </c>
       <c r="B414" s="16" t="s">
         <v>1707</v>
@@ -28617,7 +28620,7 @@
         <v>PCNT</v>
       </c>
       <c r="H414" s="1" t="s">
-        <v>4131</v>
+        <v>4129</v>
       </c>
       <c r="I414" s="25" t="str">
         <f>VLOOKUP(H414,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28626,7 +28629,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
-        <v>4217</v>
+        <v>4215</v>
       </c>
       <c r="B415" s="16" t="s">
         <v>1709</v>
@@ -28650,7 +28653,7 @@
         <v>PCNT</v>
       </c>
       <c r="H415" s="1" t="s">
-        <v>4132</v>
+        <v>4130</v>
       </c>
       <c r="I415" s="25" t="str">
         <f>VLOOKUP(H415,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28659,7 +28662,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="B416" s="16" t="s">
         <v>1711</v>
@@ -28683,7 +28686,7 @@
         <v>PCNT</v>
       </c>
       <c r="H416" s="1" t="s">
-        <v>4246</v>
+        <v>4244</v>
       </c>
       <c r="I416" s="25" t="str">
         <f>VLOOKUP(H416,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28692,7 +28695,7 @@
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
-        <v>4219</v>
+        <v>4217</v>
       </c>
       <c r="B417" s="16" t="s">
         <v>1713</v>
@@ -28716,7 +28719,7 @@
         <v>PCNT</v>
       </c>
       <c r="H417" s="1" t="s">
-        <v>4247</v>
+        <v>4245</v>
       </c>
       <c r="I417" s="25" t="str">
         <f>VLOOKUP(H417,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28725,7 +28728,7 @@
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
-        <v>4220</v>
+        <v>4218</v>
       </c>
       <c r="B418" s="16" t="s">
         <v>1715</v>
@@ -28749,7 +28752,7 @@
         <v>PCNT</v>
       </c>
       <c r="H418" s="1" t="s">
-        <v>4248</v>
+        <v>4246</v>
       </c>
       <c r="I418" s="25" t="str">
         <f>VLOOKUP(H418,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28758,7 +28761,7 @@
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
-        <v>4221</v>
+        <v>4219</v>
       </c>
       <c r="B419" s="16" t="s">
         <v>1717</v>
@@ -28782,7 +28785,7 @@
         <v>PCNT</v>
       </c>
       <c r="H419" s="1" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="I419" s="25" t="str">
         <f>VLOOKUP(H419,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28791,7 +28794,7 @@
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
-        <v>4222</v>
+        <v>4220</v>
       </c>
       <c r="B420" s="16" t="s">
         <v>1719</v>
@@ -28815,7 +28818,7 @@
         <v>PCNT</v>
       </c>
       <c r="H420" s="1" t="s">
-        <v>4250</v>
+        <v>4248</v>
       </c>
       <c r="I420" s="25" t="str">
         <f>VLOOKUP(H420,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28824,7 +28827,7 @@
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
-        <v>4223</v>
+        <v>4221</v>
       </c>
       <c r="B421" s="16" t="s">
         <v>1721</v>
@@ -28848,7 +28851,7 @@
         <v>PCNT</v>
       </c>
       <c r="H421" s="1" t="s">
-        <v>4251</v>
+        <v>4249</v>
       </c>
       <c r="I421" s="25" t="str">
         <f>VLOOKUP(H421,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28857,7 +28860,7 @@
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
-        <v>4224</v>
+        <v>4222</v>
       </c>
       <c r="B422" s="16" t="s">
         <v>1723</v>
@@ -28881,7 +28884,7 @@
         <v>PCNT</v>
       </c>
       <c r="H422" s="1" t="s">
-        <v>4252</v>
+        <v>4250</v>
       </c>
       <c r="I422" s="25" t="str">
         <f>VLOOKUP(H422,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28890,7 +28893,7 @@
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="B423" s="16" t="s">
         <v>1725</v>
@@ -28914,7 +28917,7 @@
         <v>PCNT</v>
       </c>
       <c r="H423" s="1" t="s">
-        <v>4253</v>
+        <v>4251</v>
       </c>
       <c r="I423" s="25" t="str">
         <f>VLOOKUP(H423,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28923,7 +28926,7 @@
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
-        <v>4226</v>
+        <v>4224</v>
       </c>
       <c r="B424" s="16" t="s">
         <v>1727</v>
@@ -28947,7 +28950,7 @@
         <v>PCNT</v>
       </c>
       <c r="H424" s="1" t="s">
-        <v>4254</v>
+        <v>4252</v>
       </c>
       <c r="I424" s="25" t="str">
         <f>VLOOKUP(H424,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28956,7 +28959,7 @@
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
-        <v>4227</v>
+        <v>4225</v>
       </c>
       <c r="B425" s="16" t="s">
         <v>1729</v>
@@ -28980,7 +28983,7 @@
         <v>PCNT</v>
       </c>
       <c r="H425" s="1" t="s">
-        <v>4255</v>
+        <v>4253</v>
       </c>
       <c r="I425" s="25" t="str">
         <f>VLOOKUP(H425,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28989,7 +28992,7 @@
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
-        <v>4228</v>
+        <v>4226</v>
       </c>
       <c r="B426" s="16" t="s">
         <v>1731</v>
@@ -29013,7 +29016,7 @@
         <v>PCNT</v>
       </c>
       <c r="H426" s="1" t="s">
-        <v>4256</v>
+        <v>4254</v>
       </c>
       <c r="I426" s="25" t="str">
         <f>VLOOKUP(H426,Source!$A$2:$G$471,3,FALSE)</f>
@@ -29027,7 +29030,7 @@
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
-        <v>4539</v>
+        <v>4535</v>
       </c>
       <c r="B428" s="16" t="s">
         <v>1853</v>
@@ -29051,7 +29054,7 @@
         <v>PCNT</v>
       </c>
       <c r="H428" s="1" t="s">
-        <v>4257</v>
+        <v>4255</v>
       </c>
       <c r="I428" s="25" t="str">
         <f>VLOOKUP(H428,Source!$A$2:$G$441,3,FALSE)</f>
@@ -29060,7 +29063,7 @@
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
-        <v>4540</v>
+        <v>4536</v>
       </c>
       <c r="B429" s="16" t="s">
         <v>3522</v>
@@ -29084,7 +29087,7 @@
         <v>BINARY</v>
       </c>
       <c r="H429" s="1" t="s">
-        <v>4258</v>
+        <v>4256</v>
       </c>
       <c r="I429" s="25" t="str">
         <f>VLOOKUP(H429,Source!$A$2:$G$441,3,FALSE)</f>
@@ -29093,7 +29096,7 @@
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
-        <v>4541</v>
+        <v>4537</v>
       </c>
       <c r="B430" s="16" t="s">
         <v>3523</v>
@@ -29117,7 +29120,7 @@
         <v>BINARY</v>
       </c>
       <c r="H430" s="1" t="s">
-        <v>4259</v>
+        <v>4257</v>
       </c>
       <c r="I430" s="25" t="str">
         <f>VLOOKUP(H430,Source!$A$2:$G$441,3,FALSE)</f>
@@ -29661,9 +29664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M877"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30038,7 +30041,7 @@
         <v>944</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>4271</v>
+        <v>4269</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>2758</v>
@@ -30279,7 +30282,7 @@
         <v>1950</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>4269</v>
+        <v>4267</v>
       </c>
       <c r="E25" s="34" t="s">
         <v>2660</v>
@@ -30319,7 +30322,7 @@
         <v>1950</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
       <c r="E27" s="34" t="s">
         <v>2661</v>
@@ -30342,7 +30345,7 @@
         <v>3219</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>4280</v>
+        <v>4278</v>
       </c>
       <c r="F28" t="s">
         <v>984</v>
@@ -30659,10 +30662,10 @@
         <v>1953</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>4281</v>
+        <v>4279</v>
       </c>
       <c r="F44" t="s">
         <v>2283</v>
@@ -30725,7 +30728,7 @@
         <v>3242</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>4282</v>
+        <v>4280</v>
       </c>
       <c r="F47" t="s">
         <v>2294</v>
@@ -30948,10 +30951,10 @@
         <v>1955</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
       <c r="E58" s="44" t="s">
-        <v>4283</v>
+        <v>4281</v>
       </c>
       <c r="F58" t="s">
         <v>2298</v>
@@ -31094,7 +31097,7 @@
         <v>3219</v>
       </c>
       <c r="E65" s="44" t="s">
-        <v>4284</v>
+        <v>4282</v>
       </c>
       <c r="F65" t="s">
         <v>1043</v>
@@ -31117,7 +31120,7 @@
         <v>3219</v>
       </c>
       <c r="E66" s="44" t="s">
-        <v>4285</v>
+        <v>4283</v>
       </c>
       <c r="F66" t="s">
         <v>1044</v>
@@ -31140,7 +31143,7 @@
         <v>3219</v>
       </c>
       <c r="E67" s="44" t="s">
-        <v>4286</v>
+        <v>4284</v>
       </c>
       <c r="F67" t="s">
         <v>1045</v>
@@ -31163,7 +31166,7 @@
         <v>3219</v>
       </c>
       <c r="E68" s="44" t="s">
-        <v>4287</v>
+        <v>4285</v>
       </c>
       <c r="F68" t="s">
         <v>1046</v>
@@ -31186,7 +31189,7 @@
         <v>3219</v>
       </c>
       <c r="E69" s="44" t="s">
-        <v>4288</v>
+        <v>4286</v>
       </c>
       <c r="F69" t="s">
         <v>1047</v>
@@ -31336,7 +31339,7 @@
         <v>3147</v>
       </c>
       <c r="E76" s="45" t="s">
-        <v>4289</v>
+        <v>4287</v>
       </c>
       <c r="F76" t="s">
         <v>3430</v>
@@ -31357,7 +31360,7 @@
         <v>3147</v>
       </c>
       <c r="E77" s="45" t="s">
-        <v>4290</v>
+        <v>4288</v>
       </c>
       <c r="F77" t="s">
         <v>3445</v>
@@ -31378,7 +31381,7 @@
         <v>3147</v>
       </c>
       <c r="E78" s="45" t="s">
-        <v>4291</v>
+        <v>4289</v>
       </c>
       <c r="F78" t="s">
         <v>3431</v>
@@ -31399,7 +31402,7 @@
         <v>3147</v>
       </c>
       <c r="E79" s="45" t="s">
-        <v>4292</v>
+        <v>4290</v>
       </c>
       <c r="F79" t="s">
         <v>3429</v>
@@ -31420,7 +31423,7 @@
         <v>3147</v>
       </c>
       <c r="E80" s="45" t="s">
-        <v>4293</v>
+        <v>4291</v>
       </c>
       <c r="F80" t="s">
         <v>3446</v>
@@ -31441,7 +31444,7 @@
         <v>3147</v>
       </c>
       <c r="E81" s="45" t="s">
-        <v>4294</v>
+        <v>4292</v>
       </c>
       <c r="F81" t="s">
         <v>3432</v>
@@ -31462,7 +31465,7 @@
         <v>3147</v>
       </c>
       <c r="E82" s="45" t="s">
-        <v>4295</v>
+        <v>4293</v>
       </c>
       <c r="F82" t="s">
         <v>3433</v>
@@ -31483,7 +31486,7 @@
         <v>3147</v>
       </c>
       <c r="E83" s="45" t="s">
-        <v>4296</v>
+        <v>4294</v>
       </c>
       <c r="F83" t="s">
         <v>3434</v>
@@ -31504,7 +31507,7 @@
         <v>3147</v>
       </c>
       <c r="E84" s="45" t="s">
-        <v>4297</v>
+        <v>4295</v>
       </c>
       <c r="F84" t="s">
         <v>3447</v>
@@ -31525,7 +31528,7 @@
         <v>3147</v>
       </c>
       <c r="E85" s="45" t="s">
-        <v>4298</v>
+        <v>4296</v>
       </c>
       <c r="F85" t="s">
         <v>3448</v>
@@ -31908,7 +31911,7 @@
         <v>3182</v>
       </c>
       <c r="E102" s="44" t="s">
-        <v>4299</v>
+        <v>4297</v>
       </c>
       <c r="F102" t="s">
         <v>3186</v>
@@ -32284,7 +32287,7 @@
         <v>3198</v>
       </c>
       <c r="E120" s="45" t="s">
-        <v>4300</v>
+        <v>4298</v>
       </c>
       <c r="F120" t="s">
         <v>3199</v>
@@ -32305,7 +32308,7 @@
         <v>3198</v>
       </c>
       <c r="E121" s="45" t="s">
-        <v>4301</v>
+        <v>4299</v>
       </c>
       <c r="F121" t="s">
         <v>3209</v>
@@ -32326,7 +32329,7 @@
         <v>3198</v>
       </c>
       <c r="E122" s="45" t="s">
-        <v>4302</v>
+        <v>4300</v>
       </c>
       <c r="F122" t="s">
         <v>3210</v>
@@ -32347,7 +32350,7 @@
         <v>3198</v>
       </c>
       <c r="E123" s="45" t="s">
-        <v>4303</v>
+        <v>4301</v>
       </c>
       <c r="F123" t="s">
         <v>3211</v>
@@ -32431,7 +32434,7 @@
         <v>3219</v>
       </c>
       <c r="E127" s="45" t="s">
-        <v>4304</v>
+        <v>4302</v>
       </c>
       <c r="F127" t="s">
         <v>3220</v>
@@ -32533,10 +32536,10 @@
         <v>1955</v>
       </c>
       <c r="D132" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
       <c r="E132" s="45" t="s">
-        <v>4305</v>
+        <v>4303</v>
       </c>
       <c r="F132" t="s">
         <v>3365</v>
@@ -32554,10 +32557,10 @@
         <v>1955</v>
       </c>
       <c r="D133" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
       <c r="E133" s="45" t="s">
-        <v>4306</v>
+        <v>4304</v>
       </c>
       <c r="F133" t="s">
         <v>3271</v>
@@ -32575,10 +32578,10 @@
         <v>1955</v>
       </c>
       <c r="D134" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
       <c r="E134" s="45" t="s">
-        <v>4307</v>
+        <v>4305</v>
       </c>
       <c r="F134" t="s">
         <v>3779</v>
@@ -32596,7 +32599,7 @@
         <v>1955</v>
       </c>
       <c r="D135" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
       <c r="E135" s="45" t="s">
         <v>3465</v>
@@ -32617,7 +32620,7 @@
         <v>1955</v>
       </c>
       <c r="D136" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
       <c r="E136" s="45" t="s">
         <v>3470</v>
@@ -32638,7 +32641,7 @@
         <v>1955</v>
       </c>
       <c r="D137" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
       <c r="E137" s="45" t="s">
         <v>3471</v>
@@ -32659,7 +32662,7 @@
         <v>1955</v>
       </c>
       <c r="D138" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
       <c r="E138" s="45" t="s">
         <v>3473</v>
@@ -32680,7 +32683,7 @@
         <v>1955</v>
       </c>
       <c r="D139" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
       <c r="E139" s="45" t="s">
         <v>3476</v>
@@ -32701,7 +32704,7 @@
         <v>1955</v>
       </c>
       <c r="D140" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
       <c r="E140" s="45" t="s">
         <v>3480</v>
@@ -32722,7 +32725,7 @@
         <v>1955</v>
       </c>
       <c r="D141" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
       <c r="E141" s="45" t="s">
         <v>3481</v>
@@ -32743,7 +32746,7 @@
         <v>1955</v>
       </c>
       <c r="D142" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
       <c r="E142" s="45" t="s">
         <v>3486</v>
@@ -32764,7 +32767,7 @@
         <v>1955</v>
       </c>
       <c r="D143" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
       <c r="E143" s="45" t="s">
         <v>3489</v>
@@ -32788,7 +32791,7 @@
         <v>3242</v>
       </c>
       <c r="E144" s="45" t="s">
-        <v>4308</v>
+        <v>4306</v>
       </c>
       <c r="F144" t="s">
         <v>3243</v>
@@ -32809,7 +32812,7 @@
         <v>3242</v>
       </c>
       <c r="E145" s="45" t="s">
-        <v>4309</v>
+        <v>4307</v>
       </c>
       <c r="F145" t="s">
         <v>3246</v>
@@ -32830,7 +32833,7 @@
         <v>3242</v>
       </c>
       <c r="E146" s="45" t="s">
-        <v>4310</v>
+        <v>4308</v>
       </c>
       <c r="F146" t="s">
         <v>3249</v>
@@ -32851,7 +32854,7 @@
         <v>3242</v>
       </c>
       <c r="E147" s="45" t="s">
-        <v>4311</v>
+        <v>4309</v>
       </c>
       <c r="F147" t="s">
         <v>3251</v>
@@ -32872,7 +32875,7 @@
         <v>3242</v>
       </c>
       <c r="E148" s="45" t="s">
-        <v>4312</v>
+        <v>4310</v>
       </c>
       <c r="F148" t="s">
         <v>3253</v>
@@ -32935,7 +32938,7 @@
         <v>3262</v>
       </c>
       <c r="E151" s="45" t="s">
-        <v>4313</v>
+        <v>4311</v>
       </c>
       <c r="F151" t="s">
         <v>3261</v>
@@ -32956,7 +32959,7 @@
         <v>3262</v>
       </c>
       <c r="E152" s="45" t="s">
-        <v>4314</v>
+        <v>4312</v>
       </c>
       <c r="F152" t="s">
         <v>3266</v>
@@ -32977,7 +32980,7 @@
         <v>3262</v>
       </c>
       <c r="E153" s="45" t="s">
-        <v>4315</v>
+        <v>4313</v>
       </c>
       <c r="F153" t="s">
         <v>3267</v>
@@ -32998,7 +33001,7 @@
         <v>3262</v>
       </c>
       <c r="E154" s="45" t="s">
-        <v>4316</v>
+        <v>4314</v>
       </c>
       <c r="F154" t="s">
         <v>3268</v>
@@ -33019,7 +33022,7 @@
         <v>3262</v>
       </c>
       <c r="E155" s="45" t="s">
-        <v>4317</v>
+        <v>4315</v>
       </c>
       <c r="F155" t="s">
         <v>3464</v>
@@ -33040,7 +33043,7 @@
         <v>2324</v>
       </c>
       <c r="E156" s="49" t="s">
-        <v>4318</v>
+        <v>4316</v>
       </c>
       <c r="F156" t="s">
         <v>1049</v>
@@ -33057,10 +33060,10 @@
         <v>2318</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E157" s="49" t="s">
-        <v>4319</v>
+        <v>4317</v>
       </c>
       <c r="F157" t="s">
         <v>1050</v>
@@ -33077,10 +33080,10 @@
         <v>2318</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E158" s="49" t="s">
-        <v>4320</v>
+        <v>4318</v>
       </c>
       <c r="F158" t="s">
         <v>1051</v>
@@ -33097,10 +33100,10 @@
         <v>2318</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E159" s="49" t="s">
-        <v>4321</v>
+        <v>4319</v>
       </c>
       <c r="F159" t="s">
         <v>1052</v>
@@ -33157,7 +33160,7 @@
         <v>2318</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E162" s="49" t="s">
         <v>1057</v>
@@ -33177,7 +33180,7 @@
         <v>2318</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E163" s="49" t="s">
         <v>1059</v>
@@ -33200,7 +33203,7 @@
         <v>2326</v>
       </c>
       <c r="E164" s="49" t="s">
-        <v>4322</v>
+        <v>4320</v>
       </c>
       <c r="F164" t="s">
         <v>1061</v>
@@ -33217,10 +33220,10 @@
         <v>2318</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E165" s="49" t="s">
-        <v>4323</v>
+        <v>4321</v>
       </c>
       <c r="F165" t="s">
         <v>1062</v>
@@ -33237,10 +33240,10 @@
         <v>2318</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E166" s="49" t="s">
-        <v>4324</v>
+        <v>4322</v>
       </c>
       <c r="F166" t="s">
         <v>1063</v>
@@ -33257,10 +33260,10 @@
         <v>2318</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E167" s="49" t="s">
-        <v>4325</v>
+        <v>4323</v>
       </c>
       <c r="F167" t="s">
         <v>2681</v>
@@ -33277,10 +33280,10 @@
         <v>2318</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E168" s="49" t="s">
-        <v>4333</v>
+        <v>4331</v>
       </c>
       <c r="F168" t="s">
         <v>1064</v>
@@ -33297,10 +33300,10 @@
         <v>2318</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E169" s="49" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="F169" t="s">
         <v>1065</v>
@@ -33320,7 +33323,7 @@
         <v>2326</v>
       </c>
       <c r="E170" s="49" t="s">
-        <v>4327</v>
+        <v>4325</v>
       </c>
       <c r="F170" t="s">
         <v>1066</v>
@@ -33357,10 +33360,10 @@
         <v>2318</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E172" s="49" t="s">
-        <v>4328</v>
+        <v>4326</v>
       </c>
       <c r="F172" t="s">
         <v>2169</v>
@@ -33377,10 +33380,10 @@
         <v>2318</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E173" s="49" t="s">
-        <v>4329</v>
+        <v>4327</v>
       </c>
       <c r="F173" t="s">
         <v>2168</v>
@@ -33397,10 +33400,10 @@
         <v>2318</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E174" s="49" t="s">
-        <v>4330</v>
+        <v>4328</v>
       </c>
       <c r="F174" t="s">
         <v>2014</v>
@@ -33438,7 +33441,7 @@
         <v>2318</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E176" s="49" t="s">
         <v>1073</v>
@@ -33478,10 +33481,10 @@
         <v>2318</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E178" s="49" t="s">
-        <v>4331</v>
+        <v>4329</v>
       </c>
       <c r="F178" t="s">
         <v>1077</v>
@@ -33501,7 +33504,7 @@
         <v>2352</v>
       </c>
       <c r="E179" s="49" t="s">
-        <v>4332</v>
+        <v>4330</v>
       </c>
       <c r="F179" t="s">
         <v>1078</v>
@@ -33518,10 +33521,10 @@
         <v>2318</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E180" s="49" t="s">
-        <v>4334</v>
+        <v>4332</v>
       </c>
       <c r="F180" t="s">
         <v>1079</v>
@@ -33541,7 +33544,7 @@
         <v>2352</v>
       </c>
       <c r="E181" s="49" t="s">
-        <v>4335</v>
+        <v>4333</v>
       </c>
       <c r="F181" t="s">
         <v>1080</v>
@@ -33558,10 +33561,10 @@
         <v>2318</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E182" s="49" t="s">
-        <v>4336</v>
+        <v>4334</v>
       </c>
       <c r="F182" t="s">
         <v>1081</v>
@@ -33581,7 +33584,7 @@
         <v>2352</v>
       </c>
       <c r="E183" s="49" t="s">
-        <v>4337</v>
+        <v>4335</v>
       </c>
       <c r="F183" t="s">
         <v>2127</v>
@@ -33598,10 +33601,10 @@
         <v>2318</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E184" s="49" t="s">
-        <v>4338</v>
+        <v>4336</v>
       </c>
       <c r="F184" t="s">
         <v>1082</v>
@@ -33618,10 +33621,10 @@
         <v>2318</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E185" s="50" t="s">
-        <v>4339</v>
+        <v>4337</v>
       </c>
       <c r="F185" t="s">
         <v>1083</v>
@@ -33638,10 +33641,10 @@
         <v>2318</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E186" s="50" t="s">
-        <v>4340</v>
+        <v>4338</v>
       </c>
       <c r="F186" t="s">
         <v>2354</v>
@@ -33658,10 +33661,10 @@
         <v>2318</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E187" s="50" t="s">
-        <v>4341</v>
+        <v>4339</v>
       </c>
       <c r="F187" t="s">
         <v>2355</v>
@@ -33698,10 +33701,10 @@
         <v>2318</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E189" s="50" t="s">
-        <v>4342</v>
+        <v>4340</v>
       </c>
       <c r="F189" t="s">
         <v>1086</v>
@@ -33718,10 +33721,10 @@
         <v>2318</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E190" s="50" t="s">
-        <v>4343</v>
+        <v>4341</v>
       </c>
       <c r="F190" t="s">
         <v>1087</v>
@@ -33738,10 +33741,10 @@
         <v>2318</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E191" s="50" t="s">
-        <v>4350</v>
+        <v>4348</v>
       </c>
       <c r="F191" t="s">
         <v>1088</v>
@@ -33758,10 +33761,10 @@
         <v>2318</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E192" s="50" t="s">
-        <v>4344</v>
+        <v>4342</v>
       </c>
       <c r="F192" t="s">
         <v>1089</v>
@@ -33778,10 +33781,10 @@
         <v>2318</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E193" s="50" t="s">
-        <v>4345</v>
+        <v>4343</v>
       </c>
       <c r="F193" t="s">
         <v>1090</v>
@@ -33798,10 +33801,10 @@
         <v>2318</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E194" s="50" t="s">
-        <v>4346</v>
+        <v>4344</v>
       </c>
       <c r="F194" t="s">
         <v>1091</v>
@@ -33818,10 +33821,10 @@
         <v>2318</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E195" s="50" t="s">
-        <v>4347</v>
+        <v>4345</v>
       </c>
       <c r="F195" t="s">
         <v>1092</v>
@@ -33838,10 +33841,10 @@
         <v>2318</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E196" s="50" t="s">
-        <v>4348</v>
+        <v>4346</v>
       </c>
       <c r="F196" t="s">
         <v>1093</v>
@@ -33858,10 +33861,10 @@
         <v>2318</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E197" s="50" t="s">
-        <v>4349</v>
+        <v>4347</v>
       </c>
       <c r="F197" t="s">
         <v>1094</v>
@@ -33878,10 +33881,10 @@
         <v>2318</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E198" s="50" t="s">
-        <v>4351</v>
+        <v>4349</v>
       </c>
       <c r="F198" t="s">
         <v>1095</v>
@@ -33898,10 +33901,10 @@
         <v>2318</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E199" s="50" t="s">
-        <v>4352</v>
+        <v>4350</v>
       </c>
       <c r="F199" t="s">
         <v>1096</v>
@@ -33938,7 +33941,7 @@
         <v>2318</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E201" s="50" t="s">
         <v>1099</v>
@@ -33960,7 +33963,7 @@
         <v>2318</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E202" s="50" t="s">
         <v>1101</v>
@@ -33982,7 +33985,7 @@
         <v>2318</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E203" s="50" t="s">
         <v>1103</v>
@@ -34004,7 +34007,7 @@
         <v>2318</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E204" s="50" t="s">
         <v>1105</v>
@@ -34048,7 +34051,7 @@
         <v>2318</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E206" s="50" t="s">
         <v>1108</v>
@@ -34070,7 +34073,7 @@
         <v>2318</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E207" s="50" t="s">
         <v>1110</v>
@@ -34092,7 +34095,7 @@
         <v>2318</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E208" s="50" t="s">
         <v>1112</v>
@@ -34114,7 +34117,7 @@
         <v>2318</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E209" s="50" t="s">
         <v>1113</v>
@@ -34136,7 +34139,7 @@
         <v>2318</v>
       </c>
       <c r="D210" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E210" s="50" t="s">
         <v>1115</v>
@@ -34158,7 +34161,7 @@
         <v>2318</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E211" s="50" t="s">
         <v>2377</v>
@@ -34180,7 +34183,7 @@
         <v>2318</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E212" s="50" t="s">
         <v>2378</v>
@@ -34202,7 +34205,7 @@
         <v>2318</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E213" s="50" t="s">
         <v>1118</v>
@@ -34224,7 +34227,7 @@
         <v>2318</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E214" s="50" t="s">
         <v>1119</v>
@@ -34246,7 +34249,7 @@
         <v>2318</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E215" s="50" t="s">
         <v>1120</v>
@@ -34268,7 +34271,7 @@
         <v>2318</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E216" s="50" t="s">
         <v>1121</v>
@@ -34290,7 +34293,7 @@
         <v>2318</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E217" s="50" t="s">
         <v>1122</v>
@@ -34310,7 +34313,7 @@
         <v>2318</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E218" s="50" t="s">
         <v>1123</v>
@@ -34330,7 +34333,7 @@
         <v>2318</v>
       </c>
       <c r="D219" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E219" s="50" t="s">
         <v>1124</v>
@@ -34350,7 +34353,7 @@
         <v>2318</v>
       </c>
       <c r="D220" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E220" s="50" t="s">
         <v>1125</v>
@@ -34370,7 +34373,7 @@
         <v>2318</v>
       </c>
       <c r="D221" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E221" s="50" t="s">
         <v>1126</v>
@@ -34390,7 +34393,7 @@
         <v>2318</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E222" s="50" t="s">
         <v>1127</v>
@@ -34410,10 +34413,10 @@
         <v>2318</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E223" s="50" t="s">
-        <v>4353</v>
+        <v>4351</v>
       </c>
       <c r="F223" t="s">
         <v>2039</v>
@@ -34430,10 +34433,10 @@
         <v>2318</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E224" s="50" t="s">
-        <v>4354</v>
+        <v>4352</v>
       </c>
       <c r="F224" t="s">
         <v>2040</v>
@@ -34450,10 +34453,10 @@
         <v>2318</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E225" s="50" t="s">
-        <v>4355</v>
+        <v>4353</v>
       </c>
       <c r="F225" t="s">
         <v>2041</v>
@@ -34470,10 +34473,10 @@
         <v>2318</v>
       </c>
       <c r="D226" s="25" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E226" s="50" t="s">
-        <v>4356</v>
+        <v>4354</v>
       </c>
       <c r="F226" t="s">
         <v>2042</v>
@@ -34490,10 +34493,10 @@
         <v>2318</v>
       </c>
       <c r="D227" s="25" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E227" s="50" t="s">
-        <v>4357</v>
+        <v>4355</v>
       </c>
       <c r="F227" t="s">
         <v>2047</v>
@@ -34510,10 +34513,10 @@
         <v>2318</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E228" s="50" t="s">
-        <v>4358</v>
+        <v>4356</v>
       </c>
       <c r="F228" t="s">
         <v>2048</v>
@@ -34530,10 +34533,10 @@
         <v>2318</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E229" s="50" t="s">
-        <v>4359</v>
+        <v>4357</v>
       </c>
       <c r="F229" t="s">
         <v>2049</v>
@@ -34550,10 +34553,10 @@
         <v>2318</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E230" s="50" t="s">
-        <v>4360</v>
+        <v>4358</v>
       </c>
       <c r="F230" t="s">
         <v>2050</v>
@@ -34630,10 +34633,10 @@
         <v>2318</v>
       </c>
       <c r="D234" s="25" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E234" s="50" t="s">
-        <v>4361</v>
+        <v>4359</v>
       </c>
       <c r="F234" t="s">
         <v>2504</v>
@@ -34653,7 +34656,7 @@
         <v>2511</v>
       </c>
       <c r="E235" s="50" t="s">
-        <v>4362</v>
+        <v>4360</v>
       </c>
       <c r="F235" t="s">
         <v>1139</v>
@@ -34673,7 +34676,7 @@
         <v>2511</v>
       </c>
       <c r="E236" s="50" t="s">
-        <v>4363</v>
+        <v>4361</v>
       </c>
       <c r="F236" t="s">
         <v>1140</v>
@@ -34693,7 +34696,7 @@
         <v>2511</v>
       </c>
       <c r="E237" s="50" t="s">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F237" t="s">
         <v>1141</v>
@@ -34713,7 +34716,7 @@
         <v>2511</v>
       </c>
       <c r="E238" s="50" t="s">
-        <v>4365</v>
+        <v>4363</v>
       </c>
       <c r="F238" t="s">
         <v>1142</v>
@@ -34750,10 +34753,10 @@
         <v>2318</v>
       </c>
       <c r="D240" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E240" s="50" t="s">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F240" t="s">
         <v>1144</v>
@@ -34773,7 +34776,7 @@
         <v>2515</v>
       </c>
       <c r="E241" s="50" t="s">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="F241" t="s">
         <v>1145</v>
@@ -34790,10 +34793,10 @@
         <v>2318</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E242" s="50" t="s">
-        <v>4368</v>
+        <v>4366</v>
       </c>
       <c r="F242" t="s">
         <v>1146</v>
@@ -34813,7 +34816,7 @@
         <v>2516</v>
       </c>
       <c r="E243" s="50" t="s">
-        <v>4369</v>
+        <v>4367</v>
       </c>
       <c r="F243" t="s">
         <v>1147</v>
@@ -34833,7 +34836,7 @@
         <v>2516</v>
       </c>
       <c r="E244" s="50" t="s">
-        <v>4370</v>
+        <v>4368</v>
       </c>
       <c r="F244" t="s">
         <v>1148</v>
@@ -34850,10 +34853,10 @@
         <v>2318</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E245" s="50" t="s">
-        <v>4371</v>
+        <v>4369</v>
       </c>
       <c r="F245" t="s">
         <v>1149</v>
@@ -34870,10 +34873,10 @@
         <v>2318</v>
       </c>
       <c r="D246" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E246" s="50" t="s">
-        <v>4372</v>
+        <v>4370</v>
       </c>
       <c r="F246" t="s">
         <v>1150</v>
@@ -34890,10 +34893,10 @@
         <v>2318</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E247" s="50" t="s">
-        <v>4373</v>
+        <v>4371</v>
       </c>
       <c r="F247" t="s">
         <v>1151</v>
@@ -34910,10 +34913,10 @@
         <v>2318</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E248" s="50" t="s">
-        <v>4374</v>
+        <v>4372</v>
       </c>
       <c r="F248" t="s">
         <v>1152</v>
@@ -34930,10 +34933,10 @@
         <v>2318</v>
       </c>
       <c r="D249" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E249" s="50" t="s">
-        <v>4375</v>
+        <v>4373</v>
       </c>
       <c r="F249" t="s">
         <v>1153</v>
@@ -34950,10 +34953,10 @@
         <v>2318</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E250" s="50" t="s">
-        <v>4376</v>
+        <v>4374</v>
       </c>
       <c r="F250" t="s">
         <v>1154</v>
@@ -34970,10 +34973,10 @@
         <v>2318</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E251" s="50" t="s">
-        <v>4377</v>
+        <v>4375</v>
       </c>
       <c r="F251" t="s">
         <v>1155</v>
@@ -34990,10 +34993,10 @@
         <v>2318</v>
       </c>
       <c r="D252" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E252" s="50" t="s">
-        <v>4378</v>
+        <v>4376</v>
       </c>
       <c r="F252" t="s">
         <v>1156</v>
@@ -35010,10 +35013,10 @@
         <v>2318</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E253" s="50" t="s">
-        <v>4379</v>
+        <v>4377</v>
       </c>
       <c r="F253" t="s">
         <v>1157</v>
@@ -35030,10 +35033,10 @@
         <v>2318</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E254" s="50" t="s">
-        <v>4380</v>
+        <v>4378</v>
       </c>
       <c r="F254" t="s">
         <v>1158</v>
@@ -35050,7 +35053,7 @@
         <v>2318</v>
       </c>
       <c r="D255" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E255" s="50" t="s">
         <v>2534</v>
@@ -35076,7 +35079,7 @@
         <v>2532</v>
       </c>
       <c r="E256" s="50" t="s">
-        <v>4381</v>
+        <v>4379</v>
       </c>
       <c r="F256" t="s">
         <v>1160</v>
@@ -35116,7 +35119,7 @@
         <v>2532</v>
       </c>
       <c r="E258" s="50" t="s">
-        <v>4382</v>
+        <v>4380</v>
       </c>
       <c r="F258" t="s">
         <v>1163</v>
@@ -35136,7 +35139,7 @@
         <v>2532</v>
       </c>
       <c r="E259" s="50" t="s">
-        <v>4383</v>
+        <v>4381</v>
       </c>
       <c r="F259" t="s">
         <v>1164</v>
@@ -35156,7 +35159,7 @@
         <v>2532</v>
       </c>
       <c r="E260" s="50" t="s">
-        <v>4384</v>
+        <v>4382</v>
       </c>
       <c r="F260" t="s">
         <v>1165</v>
@@ -35173,10 +35176,10 @@
         <v>2318</v>
       </c>
       <c r="D261" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E261" s="50" t="s">
-        <v>4385</v>
+        <v>4383</v>
       </c>
       <c r="F261" t="s">
         <v>1166</v>
@@ -35196,7 +35199,7 @@
         <v>2532</v>
       </c>
       <c r="E262" s="50" t="s">
-        <v>4386</v>
+        <v>4384</v>
       </c>
       <c r="F262" t="s">
         <v>1167</v>
@@ -35216,7 +35219,7 @@
         <v>2532</v>
       </c>
       <c r="E263" s="50" t="s">
-        <v>4387</v>
+        <v>4385</v>
       </c>
       <c r="F263" t="s">
         <v>1168</v>
@@ -35236,7 +35239,7 @@
         <v>2532</v>
       </c>
       <c r="E264" s="50" t="s">
-        <v>4388</v>
+        <v>4386</v>
       </c>
       <c r="F264" t="s">
         <v>1169</v>
@@ -35256,7 +35259,7 @@
         <v>2532</v>
       </c>
       <c r="E265" s="50" t="s">
-        <v>4389</v>
+        <v>4387</v>
       </c>
       <c r="F265" t="s">
         <v>1170</v>
@@ -35273,10 +35276,10 @@
         <v>2318</v>
       </c>
       <c r="D266" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E266" s="50" t="s">
-        <v>4390</v>
+        <v>4388</v>
       </c>
       <c r="F266" t="s">
         <v>1171</v>
@@ -35296,7 +35299,7 @@
         <v>2532</v>
       </c>
       <c r="E267" s="50" t="s">
-        <v>4391</v>
+        <v>4389</v>
       </c>
       <c r="F267" t="s">
         <v>1172</v>
@@ -35313,7 +35316,7 @@
         <v>2318</v>
       </c>
       <c r="D268" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E268" s="50" t="s">
         <v>2535</v>
@@ -35333,7 +35336,7 @@
         <v>2318</v>
       </c>
       <c r="D269" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E269" s="50" t="s">
         <v>2536</v>
@@ -35353,7 +35356,7 @@
         <v>2318</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E270" s="50" t="s">
         <v>2537</v>
@@ -35373,7 +35376,7 @@
         <v>2318</v>
       </c>
       <c r="D271" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E271" s="50" t="s">
         <v>2538</v>
@@ -35393,7 +35396,7 @@
         <v>2318</v>
       </c>
       <c r="D272" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E272" s="50" t="s">
         <v>2539</v>
@@ -35433,7 +35436,7 @@
         <v>2318</v>
       </c>
       <c r="D274" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E274" s="50" t="s">
         <v>2672</v>
@@ -35456,7 +35459,7 @@
         <v>2318</v>
       </c>
       <c r="D275" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E275" s="50" t="s">
         <v>1178</v>
@@ -35479,7 +35482,7 @@
         <v>2318</v>
       </c>
       <c r="D276" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E276" s="50" t="s">
         <v>1180</v>
@@ -35594,7 +35597,7 @@
         <v>2318</v>
       </c>
       <c r="D281" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E281" s="50" t="s">
         <v>2563</v>
@@ -35614,10 +35617,10 @@
         <v>2318</v>
       </c>
       <c r="D282" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E282" s="50" t="s">
-        <v>4392</v>
+        <v>4390</v>
       </c>
       <c r="F282" t="s">
         <v>2241</v>
@@ -35654,10 +35657,10 @@
         <v>2318</v>
       </c>
       <c r="D284" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E284" s="50" t="s">
-        <v>4393</v>
+        <v>4391</v>
       </c>
       <c r="F284" t="s">
         <v>2243</v>
@@ -35674,10 +35677,10 @@
         <v>2318</v>
       </c>
       <c r="D285" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E285" s="50" t="s">
-        <v>4394</v>
+        <v>4392</v>
       </c>
       <c r="F285" t="s">
         <v>2244</v>
@@ -35694,10 +35697,10 @@
         <v>2318</v>
       </c>
       <c r="D286" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E286" s="50" t="s">
-        <v>4395</v>
+        <v>4393</v>
       </c>
       <c r="F286" t="s">
         <v>2245</v>
@@ -35714,10 +35717,10 @@
         <v>2318</v>
       </c>
       <c r="D287" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E287" s="50" t="s">
-        <v>4396</v>
+        <v>4394</v>
       </c>
       <c r="F287" t="s">
         <v>2246</v>
@@ -35734,10 +35737,10 @@
         <v>2318</v>
       </c>
       <c r="D288" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E288" s="50" t="s">
-        <v>4397</v>
+        <v>4395</v>
       </c>
       <c r="F288" t="s">
         <v>2247</v>
@@ -35754,10 +35757,10 @@
         <v>2318</v>
       </c>
       <c r="D289" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E289" s="50" t="s">
-        <v>4398</v>
+        <v>4396</v>
       </c>
       <c r="F289" t="s">
         <v>2248</v>
@@ -35774,7 +35777,7 @@
         <v>2318</v>
       </c>
       <c r="D290" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E290" s="50" t="s">
         <v>2576</v>
@@ -35794,7 +35797,7 @@
         <v>2318</v>
       </c>
       <c r="D291" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E291" s="50" t="s">
         <v>2575</v>
@@ -35814,7 +35817,7 @@
         <v>2318</v>
       </c>
       <c r="D292" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E292" s="50" t="s">
         <v>2574</v>
@@ -35834,10 +35837,10 @@
         <v>2318</v>
       </c>
       <c r="D293" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E293" s="50" t="s">
-        <v>4399</v>
+        <v>4397</v>
       </c>
       <c r="F293" s="24" t="s">
         <v>2648</v>
@@ -35855,10 +35858,10 @@
         <v>2318</v>
       </c>
       <c r="D294" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E294" s="50" t="s">
-        <v>4400</v>
+        <v>4398</v>
       </c>
       <c r="F294" s="24" t="s">
         <v>2649</v>
@@ -35876,10 +35879,10 @@
         <v>2318</v>
       </c>
       <c r="D295" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E295" s="50" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
       <c r="F295" s="24" t="s">
         <v>2650</v>
@@ -35900,7 +35903,7 @@
         <v>2577</v>
       </c>
       <c r="E296" s="50" t="s">
-        <v>4402</v>
+        <v>4400</v>
       </c>
       <c r="F296" t="s">
         <v>1195</v>
@@ -35920,7 +35923,7 @@
         <v>2577</v>
       </c>
       <c r="E297" s="50" t="s">
-        <v>4403</v>
+        <v>4401</v>
       </c>
       <c r="F297" t="s">
         <v>1196</v>
@@ -35942,7 +35945,7 @@
         <v>2577</v>
       </c>
       <c r="E298" s="50" t="s">
-        <v>4404</v>
+        <v>4402</v>
       </c>
       <c r="F298" t="s">
         <v>1197</v>
@@ -35961,7 +35964,7 @@
         <v>2318</v>
       </c>
       <c r="D299" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E299" s="50" t="s">
         <v>2583</v>
@@ -35983,7 +35986,7 @@
         <v>2318</v>
       </c>
       <c r="D300" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E300" s="50" t="s">
         <v>2584</v>
@@ -36005,7 +36008,7 @@
         <v>2318</v>
       </c>
       <c r="D301" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E301" s="50" t="s">
         <v>2585</v>
@@ -36027,7 +36030,7 @@
         <v>2318</v>
       </c>
       <c r="D302" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E302" s="50" t="s">
         <v>2586</v>
@@ -36049,10 +36052,10 @@
         <v>2318</v>
       </c>
       <c r="D303" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E303" s="50" t="s">
-        <v>4405</v>
+        <v>4403</v>
       </c>
       <c r="F303" t="s">
         <v>1201</v>
@@ -36071,10 +36074,10 @@
         <v>2318</v>
       </c>
       <c r="D304" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E304" s="50" t="s">
-        <v>4406</v>
+        <v>4404</v>
       </c>
       <c r="F304" t="s">
         <v>1202</v>
@@ -36093,10 +36096,10 @@
         <v>2318</v>
       </c>
       <c r="D305" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E305" s="50" t="s">
-        <v>4407</v>
+        <v>4405</v>
       </c>
       <c r="F305" t="s">
         <v>1203</v>
@@ -36115,10 +36118,10 @@
         <v>2318</v>
       </c>
       <c r="D306" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E306" s="50" t="s">
-        <v>4408</v>
+        <v>4406</v>
       </c>
       <c r="F306" t="s">
         <v>1204</v>
@@ -36225,10 +36228,10 @@
         <v>2318</v>
       </c>
       <c r="D311" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E311" s="50" t="s">
-        <v>4409</v>
+        <v>4407</v>
       </c>
       <c r="F311" t="s">
         <v>1209</v>
@@ -36247,10 +36250,10 @@
         <v>2318</v>
       </c>
       <c r="D312" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E312" s="50" t="s">
-        <v>4410</v>
+        <v>4408</v>
       </c>
       <c r="F312" t="s">
         <v>1210</v>
@@ -36269,10 +36272,10 @@
         <v>2318</v>
       </c>
       <c r="D313" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E313" s="50" t="s">
-        <v>4411</v>
+        <v>4409</v>
       </c>
       <c r="F313" t="s">
         <v>1211</v>
@@ -36289,10 +36292,10 @@
         <v>2318</v>
       </c>
       <c r="D314" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E314" s="50" t="s">
-        <v>4412</v>
+        <v>4410</v>
       </c>
       <c r="F314" t="s">
         <v>1212</v>
@@ -36392,7 +36395,7 @@
         <v>2603</v>
       </c>
       <c r="E319" s="50" t="s">
-        <v>4413</v>
+        <v>4411</v>
       </c>
       <c r="F319" t="s">
         <v>2026</v>
@@ -36412,7 +36415,7 @@
         <v>2603</v>
       </c>
       <c r="E320" s="50" t="s">
-        <v>4414</v>
+        <v>4412</v>
       </c>
       <c r="F320" t="s">
         <v>2027</v>
@@ -36432,7 +36435,7 @@
         <v>2351</v>
       </c>
       <c r="E321" s="50" t="s">
-        <v>4415</v>
+        <v>4413</v>
       </c>
       <c r="F321" t="s">
         <v>2172</v>
@@ -36452,7 +36455,7 @@
         <v>2318</v>
       </c>
       <c r="D322" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E322" s="50" t="s">
         <v>2177</v>
@@ -36472,7 +36475,7 @@
         <v>2318</v>
       </c>
       <c r="D323" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E323" s="50" t="s">
         <v>2176</v>
@@ -36492,7 +36495,7 @@
         <v>2318</v>
       </c>
       <c r="D324" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E324" s="50" t="s">
         <v>2382</v>
@@ -36515,7 +36518,7 @@
         <v>2318</v>
       </c>
       <c r="D325" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E325" s="50" t="s">
         <v>2383</v>
@@ -36538,7 +36541,7 @@
         <v>2318</v>
       </c>
       <c r="D326" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E326" s="50" t="s">
         <v>2384</v>
@@ -36561,7 +36564,7 @@
         <v>2318</v>
       </c>
       <c r="D327" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E327" s="50" t="s">
         <v>2385</v>
@@ -36584,7 +36587,7 @@
         <v>2318</v>
       </c>
       <c r="D328" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E328" s="50" t="s">
         <v>2386</v>
@@ -36607,7 +36610,7 @@
         <v>2318</v>
       </c>
       <c r="D329" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E329" s="50" t="s">
         <v>2387</v>
@@ -36630,7 +36633,7 @@
         <v>2318</v>
       </c>
       <c r="D330" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E330" s="50" t="s">
         <v>2388</v>
@@ -36653,7 +36656,7 @@
         <v>2318</v>
       </c>
       <c r="D331" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E331" s="50" t="s">
         <v>2389</v>
@@ -36676,7 +36679,7 @@
         <v>2318</v>
       </c>
       <c r="D332" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E332" s="50" t="s">
         <v>2390</v>
@@ -36699,7 +36702,7 @@
         <v>2318</v>
       </c>
       <c r="D333" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E333" s="50" t="s">
         <v>2391</v>
@@ -36722,7 +36725,7 @@
         <v>2318</v>
       </c>
       <c r="D334" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E334" s="50" t="s">
         <v>2392</v>
@@ -36745,7 +36748,7 @@
         <v>2318</v>
       </c>
       <c r="D335" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E335" s="50" t="s">
         <v>2393</v>
@@ -36768,7 +36771,7 @@
         <v>2318</v>
       </c>
       <c r="D336" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E336" s="50" t="s">
         <v>2394</v>
@@ -36791,7 +36794,7 @@
         <v>2318</v>
       </c>
       <c r="D337" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E337" s="50" t="s">
         <v>2395</v>
@@ -36814,7 +36817,7 @@
         <v>2318</v>
       </c>
       <c r="D338" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E338" s="50" t="s">
         <v>2396</v>
@@ -36837,7 +36840,7 @@
         <v>2318</v>
       </c>
       <c r="D339" s="25" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="E339" s="50" t="s">
         <v>2506</v>
@@ -36877,10 +36880,10 @@
         <v>2318</v>
       </c>
       <c r="D341" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E341" s="50" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
       <c r="F341" t="s">
         <v>2524</v>
@@ -36897,10 +36900,10 @@
         <v>2318</v>
       </c>
       <c r="D342" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E342" s="50" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="F342" t="s">
         <v>2525</v>
@@ -36917,7 +36920,7 @@
         <v>2318</v>
       </c>
       <c r="D343" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E343" s="50" t="s">
         <v>2540</v>
@@ -36940,7 +36943,7 @@
         <v>2684</v>
       </c>
       <c r="E344" s="50" t="s">
-        <v>4418</v>
+        <v>4416</v>
       </c>
       <c r="F344" t="s">
         <v>2685</v>
@@ -36960,7 +36963,7 @@
         <v>2684</v>
       </c>
       <c r="E345" s="50" t="s">
-        <v>4419</v>
+        <v>4417</v>
       </c>
       <c r="F345" t="s">
         <v>2686</v>
@@ -36982,7 +36985,7 @@
         <v>2684</v>
       </c>
       <c r="E346" s="50" t="s">
-        <v>4420</v>
+        <v>4418</v>
       </c>
       <c r="F346" t="s">
         <v>2687</v>
@@ -37004,7 +37007,7 @@
         <v>2684</v>
       </c>
       <c r="E347" s="50" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
       <c r="F347" t="s">
         <v>2688</v>
@@ -37026,7 +37029,7 @@
         <v>2684</v>
       </c>
       <c r="E348" s="50" t="s">
-        <v>4422</v>
+        <v>4420</v>
       </c>
       <c r="F348" t="s">
         <v>2709</v>
@@ -37045,10 +37048,10 @@
         <v>2318</v>
       </c>
       <c r="D349" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E349" s="50" t="s">
-        <v>4423</v>
+        <v>4421</v>
       </c>
       <c r="F349" t="s">
         <v>2712</v>
@@ -37067,10 +37070,10 @@
         <v>2318</v>
       </c>
       <c r="D350" s="25" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="E350" s="50" t="s">
-        <v>4424</v>
+        <v>4422</v>
       </c>
       <c r="F350" t="s">
         <v>2721</v>
@@ -37092,7 +37095,7 @@
         <v>2684</v>
       </c>
       <c r="E351" s="50" t="s">
-        <v>4425</v>
+        <v>4423</v>
       </c>
       <c r="F351" t="s">
         <v>2734</v>
@@ -37111,10 +37114,10 @@
         <v>2318</v>
       </c>
       <c r="D352" s="25" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="E352" s="50" t="s">
-        <v>4486</v>
+        <v>4484</v>
       </c>
       <c r="F352" t="s">
         <v>2737</v>
@@ -37136,7 +37139,7 @@
         <v>2359</v>
       </c>
       <c r="E353" s="50" t="s">
-        <v>4487</v>
+        <v>4485</v>
       </c>
       <c r="F353" t="s">
         <v>2740</v>
@@ -37158,7 +37161,7 @@
         <v>3817</v>
       </c>
       <c r="E354" s="57" t="s">
-        <v>4426</v>
+        <v>4424</v>
       </c>
       <c r="F354" t="s">
         <v>3818</v>
@@ -37224,7 +37227,7 @@
         <v>3817</v>
       </c>
       <c r="E357" s="57" t="s">
-        <v>4427</v>
+        <v>4425</v>
       </c>
       <c r="F357" t="s">
         <v>3885</v>
@@ -37268,7 +37271,7 @@
         <v>3817</v>
       </c>
       <c r="E359" s="57" t="s">
-        <v>4428</v>
+        <v>4426</v>
       </c>
       <c r="F359" t="s">
         <v>3836</v>
@@ -37290,7 +37293,7 @@
         <v>3817</v>
       </c>
       <c r="E360" s="57" t="s">
-        <v>4429</v>
+        <v>4427</v>
       </c>
       <c r="F360" t="s">
         <v>3905</v>
@@ -37362,7 +37365,7 @@
         <v>3817</v>
       </c>
       <c r="E363" s="57" t="s">
-        <v>4430</v>
+        <v>4428</v>
       </c>
       <c r="F363" t="s">
         <v>3870</v>
@@ -37406,7 +37409,7 @@
         <v>3817</v>
       </c>
       <c r="E365" s="57" t="s">
-        <v>4431</v>
+        <v>4429</v>
       </c>
       <c r="F365" t="s">
         <v>3873</v>
@@ -37428,7 +37431,7 @@
         <v>3817</v>
       </c>
       <c r="E366" s="57" t="s">
-        <v>4432</v>
+        <v>4430</v>
       </c>
       <c r="F366" t="s">
         <v>3890</v>
@@ -37472,7 +37475,7 @@
         <v>3817</v>
       </c>
       <c r="E368" s="57" t="s">
-        <v>4433</v>
+        <v>4431</v>
       </c>
       <c r="F368" t="s">
         <v>3897</v>
@@ -37494,7 +37497,7 @@
         <v>3817</v>
       </c>
       <c r="E369" s="57" t="s">
-        <v>4434</v>
+        <v>4432</v>
       </c>
       <c r="F369" t="s">
         <v>3899</v>
@@ -37516,7 +37519,7 @@
         <v>3817</v>
       </c>
       <c r="E370" s="57" t="s">
-        <v>4435</v>
+        <v>4433</v>
       </c>
       <c r="F370" t="s">
         <v>3903</v>
@@ -37560,7 +37563,7 @@
         <v>3816</v>
       </c>
       <c r="E372" s="57" t="s">
-        <v>4436</v>
+        <v>4434</v>
       </c>
       <c r="F372" t="s">
         <v>3840</v>
@@ -37582,7 +37585,7 @@
         <v>3816</v>
       </c>
       <c r="E373" s="57" t="s">
-        <v>4437</v>
+        <v>4435</v>
       </c>
       <c r="F373" t="s">
         <v>3841</v>
@@ -37604,7 +37607,7 @@
         <v>3816</v>
       </c>
       <c r="E374" s="57" t="s">
-        <v>4438</v>
+        <v>4436</v>
       </c>
       <c r="F374" t="s">
         <v>3842</v>
@@ -37670,7 +37673,7 @@
         <v>3816</v>
       </c>
       <c r="E377" s="57" t="s">
-        <v>4439</v>
+        <v>4437</v>
       </c>
       <c r="F377" t="s">
         <v>3845</v>
@@ -37732,7 +37735,7 @@
         <v>3816</v>
       </c>
       <c r="E380" s="57" t="s">
-        <v>4440</v>
+        <v>4438</v>
       </c>
       <c r="F380" t="s">
         <v>3848</v>
@@ -37752,7 +37755,7 @@
         <v>3816</v>
       </c>
       <c r="E381" s="57" t="s">
-        <v>4441</v>
+        <v>4439</v>
       </c>
       <c r="F381" t="s">
         <v>3849</v>
@@ -37772,7 +37775,7 @@
         <v>3816</v>
       </c>
       <c r="E382" s="57" t="s">
-        <v>4442</v>
+        <v>4440</v>
       </c>
       <c r="F382" t="s">
         <v>3850</v>
@@ -37789,13 +37792,13 @@
         <v>2839</v>
       </c>
       <c r="D383" s="55" t="s">
-        <v>4269</v>
+        <v>4267</v>
       </c>
       <c r="E383" s="59" t="s">
-        <v>4443</v>
+        <v>4441</v>
       </c>
       <c r="F383" t="s">
-        <v>4100</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.35">
@@ -37809,13 +37812,13 @@
         <v>2839</v>
       </c>
       <c r="D384" s="55" t="s">
-        <v>4269</v>
+        <v>4267</v>
       </c>
       <c r="E384" s="59" t="s">
-        <v>4491</v>
+        <v>4489</v>
       </c>
       <c r="F384" t="s">
-        <v>4492</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.35">
@@ -37829,13 +37832,13 @@
         <v>2839</v>
       </c>
       <c r="D385" s="55" t="s">
-        <v>4269</v>
+        <v>4267</v>
       </c>
       <c r="E385" s="59" t="s">
+        <v>4491</v>
+      </c>
+      <c r="F385" t="s">
         <v>4493</v>
-      </c>
-      <c r="F385" t="s">
-        <v>4497</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.35">
@@ -37849,13 +37852,13 @@
         <v>2839</v>
       </c>
       <c r="D386" s="55" t="s">
-        <v>4269</v>
+        <v>4267</v>
       </c>
       <c r="E386" s="59" t="s">
-        <v>4498</v>
+        <v>4494</v>
       </c>
       <c r="F386" t="s">
-        <v>4499</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.35">
@@ -37869,13 +37872,13 @@
         <v>2839</v>
       </c>
       <c r="D387" s="55" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="E387" s="59" t="s">
-        <v>4444</v>
+        <v>4442</v>
       </c>
       <c r="F387" t="s">
-        <v>4102</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.35">
@@ -37889,13 +37892,13 @@
         <v>2839</v>
       </c>
       <c r="D388" s="55" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="E388" s="59" t="s">
         <v>2840</v>
       </c>
       <c r="F388" t="s">
-        <v>4103</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.35">
@@ -37909,13 +37912,13 @@
         <v>2839</v>
       </c>
       <c r="D389" s="55" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="E389" s="59" t="s">
         <v>2841</v>
       </c>
       <c r="F389" t="s">
-        <v>4105</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.35">
@@ -37929,13 +37932,13 @@
         <v>2839</v>
       </c>
       <c r="D390" s="55" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="E390" s="59" t="s">
         <v>2846</v>
       </c>
       <c r="F390" t="s">
-        <v>4104</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.35">
@@ -37949,13 +37952,13 @@
         <v>2839</v>
       </c>
       <c r="D391" s="55" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="E391" s="59" t="s">
         <v>3453</v>
       </c>
       <c r="F391" t="s">
-        <v>4106</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.35">
@@ -37969,13 +37972,13 @@
         <v>2839</v>
       </c>
       <c r="D392" s="55" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="E392" s="59" t="s">
         <v>3962</v>
       </c>
       <c r="F392" t="s">
-        <v>4107</v>
+        <v>4105</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.35">
@@ -37989,13 +37992,13 @@
         <v>2839</v>
       </c>
       <c r="D393" s="55" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="E393" s="59" t="s">
         <v>3967</v>
       </c>
       <c r="F393" t="s">
-        <v>4108</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.35">
@@ -38009,13 +38012,13 @@
         <v>2839</v>
       </c>
       <c r="D394" s="55" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="E394" s="59" t="s">
         <v>3968</v>
       </c>
       <c r="F394" t="s">
-        <v>4110</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.35">
@@ -38029,13 +38032,13 @@
         <v>2839</v>
       </c>
       <c r="D395" s="55" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="E395" s="59" t="s">
         <v>3969</v>
       </c>
       <c r="F395" t="s">
-        <v>4109</v>
+        <v>4107</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.35">
@@ -38049,7 +38052,7 @@
         <v>2839</v>
       </c>
       <c r="D396" s="55" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="E396" s="59" t="s">
         <v>2849</v>
@@ -38069,7 +38072,7 @@
         <v>2839</v>
       </c>
       <c r="D397" s="55" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="E397" s="59" t="s">
         <v>3455</v>
@@ -38089,7 +38092,7 @@
         <v>2839</v>
       </c>
       <c r="D398" s="55" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="E398" s="59" t="s">
         <v>3461</v>
@@ -38109,7 +38112,7 @@
         <v>2839</v>
       </c>
       <c r="D399" s="55" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="E399" s="59" t="s">
         <v>1896</v>
@@ -38129,7 +38132,7 @@
         <v>2839</v>
       </c>
       <c r="D400" s="55" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="E400" s="59" t="s">
         <v>2856</v>
@@ -38149,7 +38152,7 @@
         <v>2839</v>
       </c>
       <c r="D401" s="55" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="E401" s="59" t="s">
         <v>2906</v>
@@ -38169,7 +38172,7 @@
         <v>2839</v>
       </c>
       <c r="D402" s="55" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="E402" s="59" t="s">
         <v>2860</v>
@@ -38189,7 +38192,7 @@
         <v>2839</v>
       </c>
       <c r="D403" s="55" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="E403" s="59" t="s">
         <v>2675</v>
@@ -38211,10 +38214,10 @@
         <v>2839</v>
       </c>
       <c r="D404" s="55" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="E404" s="59" t="s">
-        <v>4445</v>
+        <v>4443</v>
       </c>
       <c r="F404" t="s">
         <v>2866</v>
@@ -38233,10 +38236,10 @@
         <v>2839</v>
       </c>
       <c r="D405" s="55" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="E405" s="59" t="s">
-        <v>4446</v>
+        <v>4444</v>
       </c>
       <c r="F405" t="s">
         <v>2869</v>
@@ -38255,7 +38258,7 @@
         <v>2839</v>
       </c>
       <c r="D406" s="55" t="s">
-        <v>4271</v>
+        <v>4269</v>
       </c>
       <c r="E406" s="59" t="s">
         <v>2912</v>
@@ -38277,7 +38280,7 @@
         <v>2839</v>
       </c>
       <c r="D407" s="55" t="s">
-        <v>4271</v>
+        <v>4269</v>
       </c>
       <c r="E407" s="59" t="s">
         <v>2914</v>
@@ -38299,13 +38302,13 @@
         <v>2839</v>
       </c>
       <c r="D408" s="55" t="s">
-        <v>4271</v>
+        <v>4269</v>
       </c>
       <c r="E408" s="59" t="s">
-        <v>4447</v>
+        <v>4445</v>
       </c>
       <c r="F408" t="s">
-        <v>4117</v>
+        <v>4115</v>
       </c>
       <c r="I408"/>
       <c r="J408"/>
@@ -38321,13 +38324,13 @@
         <v>2839</v>
       </c>
       <c r="D409" s="55" t="s">
-        <v>4271</v>
+        <v>4269</v>
       </c>
       <c r="E409" s="59" t="s">
-        <v>4448</v>
+        <v>4446</v>
       </c>
       <c r="F409" t="s">
-        <v>4122</v>
+        <v>4120</v>
       </c>
       <c r="I409"/>
       <c r="J409"/>
@@ -38343,10 +38346,10 @@
         <v>2839</v>
       </c>
       <c r="D410" s="55" t="s">
-        <v>4271</v>
+        <v>4269</v>
       </c>
       <c r="E410" s="59" t="s">
-        <v>4449</v>
+        <v>4447</v>
       </c>
       <c r="F410" t="s">
         <v>3970</v>
@@ -38365,7 +38368,7 @@
         <v>2839</v>
       </c>
       <c r="D411" s="55" t="s">
-        <v>4271</v>
+        <v>4269</v>
       </c>
       <c r="E411" s="59" t="s">
         <v>3971</v>
@@ -38500,7 +38503,7 @@
         <v>2920</v>
       </c>
       <c r="E417" s="59" t="s">
-        <v>4450</v>
+        <v>4448</v>
       </c>
       <c r="F417" t="s">
         <v>2944</v>
@@ -38541,13 +38544,13 @@
         <v>2839</v>
       </c>
       <c r="D419" s="55" t="s">
-        <v>4272</v>
+        <v>4270</v>
       </c>
       <c r="E419" s="59" t="s">
+        <v>3976</v>
+      </c>
+      <c r="F419" t="s">
         <v>3978</v>
-      </c>
-      <c r="F419" t="s">
-        <v>3980</v>
       </c>
       <c r="I419"/>
       <c r="J419"/>
@@ -38563,13 +38566,13 @@
         <v>2839</v>
       </c>
       <c r="D420" s="55" t="s">
-        <v>4272</v>
+        <v>4270</v>
       </c>
       <c r="E420" s="59" t="s">
+        <v>3977</v>
+      </c>
+      <c r="F420" t="s">
         <v>3979</v>
-      </c>
-      <c r="F420" t="s">
-        <v>3981</v>
       </c>
       <c r="I420"/>
       <c r="J420"/>
@@ -38585,13 +38588,13 @@
         <v>2839</v>
       </c>
       <c r="D421" s="55" t="s">
-        <v>4272</v>
+        <v>4270</v>
       </c>
       <c r="E421" s="59" t="s">
+        <v>3990</v>
+      </c>
+      <c r="F421" t="s">
         <v>3992</v>
-      </c>
-      <c r="F421" t="s">
-        <v>3994</v>
       </c>
       <c r="I421"/>
       <c r="J421"/>
@@ -38607,13 +38610,13 @@
         <v>2839</v>
       </c>
       <c r="D422" s="55" t="s">
-        <v>4272</v>
+        <v>4270</v>
       </c>
       <c r="E422" s="59" t="s">
+        <v>3991</v>
+      </c>
+      <c r="F422" t="s">
         <v>3993</v>
-      </c>
-      <c r="F422" t="s">
-        <v>3995</v>
       </c>
       <c r="I422"/>
       <c r="J422"/>
@@ -38629,13 +38632,13 @@
         <v>2839</v>
       </c>
       <c r="D423" s="55" t="s">
-        <v>4272</v>
+        <v>4270</v>
       </c>
       <c r="E423" s="59" t="s">
-        <v>3996</v>
+        <v>3994</v>
       </c>
       <c r="F423" t="s">
-        <v>3997</v>
+        <v>3995</v>
       </c>
       <c r="I423"/>
       <c r="J423"/>
@@ -38651,13 +38654,13 @@
         <v>2839</v>
       </c>
       <c r="D424" s="55" t="s">
-        <v>4272</v>
+        <v>4270</v>
       </c>
       <c r="E424" s="59" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="F424" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
       <c r="I424"/>
       <c r="J424"/>
@@ -38673,13 +38676,13 @@
         <v>2839</v>
       </c>
       <c r="D425" s="55" t="s">
-        <v>4272</v>
+        <v>4270</v>
       </c>
       <c r="E425" s="59" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="F425" t="s">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="I425"/>
       <c r="J425"/>
@@ -38695,13 +38698,13 @@
         <v>2839</v>
       </c>
       <c r="D426" s="55" t="s">
-        <v>4272</v>
+        <v>4270</v>
       </c>
       <c r="E426" s="59" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="F426" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="I426"/>
       <c r="J426"/>
@@ -38717,13 +38720,13 @@
         <v>2839</v>
       </c>
       <c r="D427" s="55" t="s">
-        <v>4272</v>
+        <v>4270</v>
       </c>
       <c r="E427" s="59" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="F427" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="I427"/>
       <c r="J427"/>
@@ -38739,13 +38742,13 @@
         <v>2839</v>
       </c>
       <c r="D428" s="55" t="s">
-        <v>4272</v>
+        <v>4270</v>
       </c>
       <c r="E428" s="59" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
       <c r="F428" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="I428"/>
       <c r="J428"/>
@@ -38761,13 +38764,13 @@
         <v>2839</v>
       </c>
       <c r="D429" s="55" t="s">
-        <v>4272</v>
+        <v>4270</v>
       </c>
       <c r="E429" s="59" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
       <c r="F429" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="I429"/>
       <c r="J429"/>
@@ -38783,13 +38786,13 @@
         <v>2839</v>
       </c>
       <c r="D430" s="55" t="s">
-        <v>4272</v>
+        <v>4270</v>
       </c>
       <c r="E430" s="59" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="F430" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="I430"/>
       <c r="J430"/>
@@ -38805,13 +38808,13 @@
         <v>2839</v>
       </c>
       <c r="D431" s="55" t="s">
-        <v>4272</v>
+        <v>4270</v>
       </c>
       <c r="E431" s="59" t="s">
-        <v>4014</v>
+        <v>4012</v>
       </c>
       <c r="F431" t="s">
-        <v>4015</v>
+        <v>4013</v>
       </c>
       <c r="I431"/>
       <c r="J431"/>
@@ -38827,10 +38830,10 @@
         <v>1959</v>
       </c>
       <c r="D432" s="55" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="E432" s="62" t="s">
-        <v>4451</v>
+        <v>4449</v>
       </c>
       <c r="F432" t="s">
         <v>2984</v>
@@ -38849,7 +38852,7 @@
         <v>1959</v>
       </c>
       <c r="D433" s="55" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="E433" s="62" t="s">
         <v>3047</v>
@@ -38871,10 +38874,10 @@
         <v>1959</v>
       </c>
       <c r="D434" s="55" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="E434" s="62" t="s">
-        <v>4452</v>
+        <v>4450</v>
       </c>
       <c r="F434" t="s">
         <v>2989</v>
@@ -38893,10 +38896,10 @@
         <v>1959</v>
       </c>
       <c r="D435" s="55" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="E435" s="62" t="s">
-        <v>4453</v>
+        <v>4451</v>
       </c>
       <c r="F435" t="s">
         <v>2993</v>
@@ -38915,10 +38918,10 @@
         <v>1959</v>
       </c>
       <c r="D436" s="55" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="E436" s="62" t="s">
-        <v>4454</v>
+        <v>4452</v>
       </c>
       <c r="F436" t="s">
         <v>2996</v>
@@ -38937,10 +38940,10 @@
         <v>1959</v>
       </c>
       <c r="D437" s="55" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="E437" s="62" t="s">
-        <v>4455</v>
+        <v>4453</v>
       </c>
       <c r="F437" t="s">
         <v>2999</v>
@@ -38959,10 +38962,10 @@
         <v>1959</v>
       </c>
       <c r="D438" s="55" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="E438" s="62" t="s">
-        <v>4456</v>
+        <v>4454</v>
       </c>
       <c r="F438" t="s">
         <v>1335</v>
@@ -38981,10 +38984,10 @@
         <v>1959</v>
       </c>
       <c r="D439" s="55" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="E439" s="62" t="s">
-        <v>4457</v>
+        <v>4455</v>
       </c>
       <c r="F439" t="s">
         <v>3003</v>
@@ -39003,7 +39006,7 @@
         <v>1959</v>
       </c>
       <c r="D440" s="55" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="E440" s="62" t="s">
         <v>3048</v>
@@ -39025,10 +39028,10 @@
         <v>1959</v>
       </c>
       <c r="D441" s="55" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="E441" s="62" t="s">
-        <v>4458</v>
+        <v>4456</v>
       </c>
       <c r="F441" t="s">
         <v>3007</v>
@@ -39047,7 +39050,7 @@
         <v>1959</v>
       </c>
       <c r="D442" s="55" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="E442" s="62" t="s">
         <v>3049</v>
@@ -39069,10 +39072,10 @@
         <v>1959</v>
       </c>
       <c r="D443" s="55" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="E443" s="62" t="s">
-        <v>4459</v>
+        <v>4457</v>
       </c>
       <c r="F443" t="s">
         <v>3009</v>
@@ -39091,10 +39094,10 @@
         <v>1959</v>
       </c>
       <c r="D444" s="55" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="E444" s="62" t="s">
-        <v>4460</v>
+        <v>4458</v>
       </c>
       <c r="F444" t="s">
         <v>3050</v>
@@ -39113,10 +39116,10 @@
         <v>1959</v>
       </c>
       <c r="D445" s="55" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="E445" s="62" t="s">
-        <v>4461</v>
+        <v>4459</v>
       </c>
       <c r="F445" t="s">
         <v>3052</v>
@@ -39135,10 +39138,10 @@
         <v>1959</v>
       </c>
       <c r="D446" s="55" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="E446" s="62" t="s">
-        <v>4462</v>
+        <v>4460</v>
       </c>
       <c r="F446" t="s">
         <v>3054</v>
@@ -39157,10 +39160,10 @@
         <v>1959</v>
       </c>
       <c r="D447" s="55" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="E447" s="62" t="s">
-        <v>4463</v>
+        <v>4461</v>
       </c>
       <c r="F447" t="s">
         <v>3056</v>
@@ -39182,7 +39185,7 @@
         <v>3658</v>
       </c>
       <c r="E448" s="62" t="s">
-        <v>4484</v>
+        <v>4482</v>
       </c>
       <c r="F448" s="51" t="s">
         <v>3657</v>
@@ -39782,7 +39785,7 @@
         <v>3058</v>
       </c>
       <c r="E472" s="62" t="s">
-        <v>4464</v>
+        <v>4462</v>
       </c>
       <c r="F472" t="s">
         <v>3059</v>
@@ -39804,7 +39807,7 @@
         <v>3058</v>
       </c>
       <c r="E473" s="62" t="s">
-        <v>4465</v>
+        <v>4463</v>
       </c>
       <c r="F473" t="s">
         <v>3061</v>
@@ -39826,7 +39829,7 @@
         <v>3058</v>
       </c>
       <c r="E474" s="62" t="s">
-        <v>4466</v>
+        <v>4464</v>
       </c>
       <c r="F474" t="s">
         <v>3063</v>
@@ -39848,7 +39851,7 @@
         <v>3058</v>
       </c>
       <c r="E475" s="62" t="s">
-        <v>4467</v>
+        <v>4465</v>
       </c>
       <c r="F475" t="s">
         <v>3065</v>
@@ -39870,7 +39873,7 @@
         <v>3058</v>
       </c>
       <c r="E476" s="62" t="s">
-        <v>4468</v>
+        <v>4466</v>
       </c>
       <c r="F476" t="s">
         <v>3067</v>
@@ -39892,7 +39895,7 @@
         <v>1989</v>
       </c>
       <c r="E477" s="62" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="F477" t="s">
         <v>3069</v>
@@ -39914,7 +39917,7 @@
         <v>1989</v>
       </c>
       <c r="E478" s="62" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
       <c r="F478" t="s">
         <v>3071</v>
@@ -39986,7 +39989,7 @@
         <v>3109</v>
       </c>
       <c r="E481" s="64" t="s">
-        <v>4485</v>
+        <v>4483</v>
       </c>
       <c r="F481" s="51" t="s">
         <v>3692</v>
@@ -40033,7 +40036,7 @@
         <v>3109</v>
       </c>
       <c r="E483" s="64" t="s">
-        <v>4471</v>
+        <v>4469</v>
       </c>
       <c r="F483" t="s">
         <v>3359</v>
@@ -40058,7 +40061,7 @@
         <v>3109</v>
       </c>
       <c r="E484" s="64" t="s">
-        <v>4472</v>
+        <v>4470</v>
       </c>
       <c r="F484" t="s">
         <v>3360</v>
@@ -40077,13 +40080,13 @@
         <v>943</v>
       </c>
       <c r="C485" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D485" s="55" t="s">
-        <v>4152</v>
+        <v>4150</v>
       </c>
       <c r="E485" s="67" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="F485" t="s">
         <v>1334</v>
@@ -40099,16 +40102,16 @@
         <v>943</v>
       </c>
       <c r="C486" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D486" s="55" t="s">
-        <v>4152</v>
+        <v>4150</v>
       </c>
       <c r="E486" s="67" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
       <c r="F486" t="s">
-        <v>4155</v>
+        <v>4153</v>
       </c>
       <c r="I486"/>
       <c r="J486"/>
@@ -40121,16 +40124,16 @@
         <v>943</v>
       </c>
       <c r="C487" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D487" s="55" t="s">
-        <v>4152</v>
+        <v>4150</v>
       </c>
       <c r="E487" s="67" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
       <c r="F487" t="s">
-        <v>4156</v>
+        <v>4154</v>
       </c>
       <c r="I487"/>
       <c r="J487"/>
@@ -40143,7 +40146,7 @@
         <v>943</v>
       </c>
       <c r="C488" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D488" s="55" t="s">
         <v>3074</v>
@@ -40152,7 +40155,7 @@
         <v>3075</v>
       </c>
       <c r="F488" t="s">
-        <v>4157</v>
+        <v>4155</v>
       </c>
       <c r="I488"/>
       <c r="J488"/>
@@ -40165,7 +40168,7 @@
         <v>943</v>
       </c>
       <c r="C489" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D489" s="55" t="s">
         <v>3074</v>
@@ -40174,7 +40177,7 @@
         <v>3079</v>
       </c>
       <c r="F489" t="s">
-        <v>4158</v>
+        <v>4156</v>
       </c>
       <c r="I489"/>
       <c r="J489"/>
@@ -40187,7 +40190,7 @@
         <v>943</v>
       </c>
       <c r="C490" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D490" s="55" t="s">
         <v>3074</v>
@@ -40196,7 +40199,7 @@
         <v>3083</v>
       </c>
       <c r="F490" t="s">
-        <v>4159</v>
+        <v>4157</v>
       </c>
       <c r="I490"/>
       <c r="J490"/>
@@ -40209,7 +40212,7 @@
         <v>943</v>
       </c>
       <c r="C491" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D491" s="55" t="s">
         <v>3074</v>
@@ -40218,7 +40221,7 @@
         <v>3082</v>
       </c>
       <c r="F491" t="s">
-        <v>4160</v>
+        <v>4158</v>
       </c>
       <c r="I491"/>
       <c r="J491"/>
@@ -40231,7 +40234,7 @@
         <v>943</v>
       </c>
       <c r="C492" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D492" s="55" t="s">
         <v>3074</v>
@@ -40256,7 +40259,7 @@
         <v>943</v>
       </c>
       <c r="C493" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D493" s="55" t="s">
         <v>3074</v>
@@ -40281,16 +40284,16 @@
         <v>943</v>
       </c>
       <c r="C494" s="66" t="s">
+        <v>4149</v>
+      </c>
+      <c r="D494" s="55" t="s">
+        <v>4271</v>
+      </c>
+      <c r="E494" s="67" t="s">
         <v>4151</v>
       </c>
-      <c r="D494" s="55" t="s">
-        <v>4273</v>
-      </c>
-      <c r="E494" s="67" t="s">
-        <v>4153</v>
-      </c>
       <c r="F494" t="s">
-        <v>4154</v>
+        <v>4152</v>
       </c>
       <c r="I494"/>
       <c r="J494"/>
@@ -40303,16 +40306,16 @@
         <v>943</v>
       </c>
       <c r="C495" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D495" s="55" t="s">
-        <v>4273</v>
+        <v>4271</v>
       </c>
       <c r="E495" s="67" t="s">
-        <v>4474</v>
+        <v>4472</v>
       </c>
       <c r="F495" t="s">
-        <v>4164</v>
+        <v>4162</v>
       </c>
       <c r="I495"/>
       <c r="J495"/>
@@ -40325,16 +40328,16 @@
         <v>943</v>
       </c>
       <c r="C496" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D496" s="55" t="s">
-        <v>4273</v>
+        <v>4271</v>
       </c>
       <c r="E496" s="67" t="s">
-        <v>4475</v>
+        <v>4473</v>
       </c>
       <c r="F496" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="I496"/>
       <c r="J496"/>
@@ -40347,16 +40350,16 @@
         <v>943</v>
       </c>
       <c r="C497" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D497" s="55" t="s">
-        <v>4273</v>
+        <v>4271</v>
       </c>
       <c r="E497" s="67" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
       <c r="F497" t="s">
-        <v>4166</v>
+        <v>4164</v>
       </c>
       <c r="I497"/>
       <c r="J497"/>
@@ -40369,16 +40372,16 @@
         <v>943</v>
       </c>
       <c r="C498" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D498" s="55" t="s">
-        <v>4273</v>
+        <v>4271</v>
       </c>
       <c r="E498" s="67" t="s">
-        <v>4477</v>
+        <v>4475</v>
       </c>
       <c r="F498" t="s">
-        <v>4167</v>
+        <v>4165</v>
       </c>
       <c r="I498"/>
       <c r="J498"/>
@@ -40391,16 +40394,16 @@
         <v>943</v>
       </c>
       <c r="C499" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D499" s="55" t="s">
-        <v>4273</v>
+        <v>4271</v>
       </c>
       <c r="E499" s="67" t="s">
-        <v>4478</v>
+        <v>4476</v>
       </c>
       <c r="F499" t="s">
-        <v>4168</v>
+        <v>4166</v>
       </c>
       <c r="I499"/>
       <c r="J499"/>
@@ -40413,16 +40416,16 @@
         <v>943</v>
       </c>
       <c r="C500" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D500" s="55" t="s">
-        <v>4273</v>
+        <v>4271</v>
       </c>
       <c r="E500" s="67" t="s">
-        <v>4479</v>
+        <v>4477</v>
       </c>
       <c r="F500" t="s">
-        <v>4169</v>
+        <v>4167</v>
       </c>
       <c r="I500"/>
       <c r="J500"/>
@@ -40435,16 +40438,16 @@
         <v>943</v>
       </c>
       <c r="C501" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D501" s="55" t="s">
-        <v>4273</v>
+        <v>4271</v>
       </c>
       <c r="E501" s="67" t="s">
-        <v>4480</v>
+        <v>4478</v>
       </c>
       <c r="F501" t="s">
-        <v>4170</v>
+        <v>4168</v>
       </c>
       <c r="I501"/>
       <c r="J501"/>
@@ -40457,16 +40460,16 @@
         <v>943</v>
       </c>
       <c r="C502" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D502" s="55" t="s">
-        <v>4273</v>
+        <v>4271</v>
       </c>
       <c r="E502" s="67" t="s">
-        <v>4481</v>
+        <v>4479</v>
       </c>
       <c r="F502" t="s">
-        <v>4171</v>
+        <v>4169</v>
       </c>
       <c r="I502"/>
       <c r="J502"/>
@@ -40479,16 +40482,16 @@
         <v>943</v>
       </c>
       <c r="C503" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D503" s="55" t="s">
-        <v>4273</v>
+        <v>4271</v>
       </c>
       <c r="E503" s="67" t="s">
-        <v>4482</v>
+        <v>4480</v>
       </c>
       <c r="F503" t="s">
-        <v>4172</v>
+        <v>4170</v>
       </c>
       <c r="I503"/>
       <c r="J503"/>
@@ -40501,16 +40504,16 @@
         <v>943</v>
       </c>
       <c r="C504" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D504" s="55" t="s">
-        <v>4273</v>
+        <v>4271</v>
       </c>
       <c r="E504" s="67" t="s">
-        <v>4483</v>
+        <v>4481</v>
       </c>
       <c r="F504" t="s">
-        <v>4184</v>
+        <v>4182</v>
       </c>
       <c r="I504"/>
       <c r="J504"/>
@@ -40523,16 +40526,16 @@
         <v>943</v>
       </c>
       <c r="C505" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D505" s="55" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="E505" s="67" t="s">
-        <v>4188</v>
+        <v>4186</v>
       </c>
       <c r="F505" t="s">
-        <v>4193</v>
+        <v>4191</v>
       </c>
       <c r="I505"/>
       <c r="J505"/>
@@ -40545,16 +40548,16 @@
         <v>943</v>
       </c>
       <c r="C506" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D506" s="55" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="E506" s="67" t="s">
-        <v>4191</v>
+        <v>4189</v>
       </c>
       <c r="F506" t="s">
-        <v>4192</v>
+        <v>4190</v>
       </c>
       <c r="I506"/>
       <c r="J506"/>
@@ -40567,16 +40570,16 @@
         <v>943</v>
       </c>
       <c r="C507" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D507" s="55" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="E507" s="67" t="s">
-        <v>4198</v>
+        <v>4196</v>
       </c>
       <c r="F507" t="s">
-        <v>4199</v>
+        <v>4197</v>
       </c>
       <c r="I507"/>
       <c r="J507"/>
@@ -40589,16 +40592,16 @@
         <v>943</v>
       </c>
       <c r="C508" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D508" s="55" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="E508" s="67" t="s">
-        <v>4207</v>
+        <v>4205</v>
       </c>
       <c r="F508" t="s">
-        <v>4210</v>
+        <v>4208</v>
       </c>
       <c r="I508"/>
       <c r="J508"/>
@@ -40611,16 +40614,16 @@
         <v>943</v>
       </c>
       <c r="C509" s="66" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="D509" s="55" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="E509" s="67" t="s">
-        <v>4208</v>
+        <v>4206</v>
       </c>
       <c r="F509" t="s">
-        <v>4209</v>
+        <v>4207</v>
       </c>
       <c r="I509"/>
       <c r="J509"/>
@@ -40662,7 +40665,7 @@
       <c r="I513"/>
       <c r="J513"/>
       <c r="M513" s="37" t="s">
-        <v>4503</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.35">
@@ -40675,7 +40678,7 @@
       <c r="I514"/>
       <c r="J514"/>
       <c r="M514" s="37" t="s">
-        <v>4504</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.35">
@@ -40698,7 +40701,7 @@
       <c r="I516"/>
       <c r="J516"/>
       <c r="M516" s="37" t="s">
-        <v>4505</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.35">
@@ -40711,7 +40714,7 @@
       <c r="I517"/>
       <c r="J517"/>
       <c r="M517" s="37" t="s">
-        <v>4506</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.35">
@@ -40724,7 +40727,7 @@
       <c r="I518"/>
       <c r="J518"/>
       <c r="M518" s="37" t="s">
-        <v>4507</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.35">
@@ -40737,7 +40740,7 @@
       <c r="I519"/>
       <c r="J519"/>
       <c r="M519" s="37" t="s">
-        <v>4508</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.35">
@@ -40750,7 +40753,7 @@
       <c r="I520"/>
       <c r="J520"/>
       <c r="M520" s="37" t="s">
-        <v>4509</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.35">
@@ -40763,7 +40766,7 @@
       <c r="I521"/>
       <c r="J521"/>
       <c r="M521" s="37" t="s">
-        <v>4510</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.35">
@@ -40776,7 +40779,7 @@
       <c r="I522"/>
       <c r="J522"/>
       <c r="M522" s="37" t="s">
-        <v>4511</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.35">
@@ -40789,7 +40792,7 @@
       <c r="I523"/>
       <c r="J523"/>
       <c r="M523" s="37" t="s">
-        <v>4512</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.35">
@@ -40892,7 +40895,7 @@
       <c r="I533"/>
       <c r="J533"/>
       <c r="M533" s="37" t="s">
-        <v>4513</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.35">
@@ -40961,7 +40964,7 @@
         <v>1277</v>
       </c>
       <c r="M540" s="37" t="s">
-        <v>4514</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="541" spans="1:13" x14ac:dyDescent="0.35">
@@ -40972,7 +40975,7 @@
         <v>1279</v>
       </c>
       <c r="M541" s="37" t="s">
-        <v>4515</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="542" spans="1:13" x14ac:dyDescent="0.35">
@@ -40983,7 +40986,7 @@
         <v>1281</v>
       </c>
       <c r="M542" s="37" t="s">
-        <v>4516</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.35">
@@ -40994,7 +40997,7 @@
         <v>1283</v>
       </c>
       <c r="M543" s="37" t="s">
-        <v>4517</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.35">
@@ -41045,7 +41048,7 @@
         <v>1295</v>
       </c>
       <c r="M549" s="37" t="s">
-        <v>4518</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="550" spans="1:13" x14ac:dyDescent="0.35">
@@ -41056,7 +41059,7 @@
         <v>1297</v>
       </c>
       <c r="M550" s="37" t="s">
-        <v>4519</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="551" spans="1:13" x14ac:dyDescent="0.35">
@@ -41067,7 +41070,7 @@
         <v>1299</v>
       </c>
       <c r="M551" s="37" t="s">
-        <v>4520</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="552" spans="1:13" x14ac:dyDescent="0.35">
@@ -41088,7 +41091,7 @@
       <c r="I553"/>
       <c r="J553"/>
       <c r="M553" s="37" t="s">
-        <v>4521</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="554" spans="1:13" x14ac:dyDescent="0.35">
@@ -41101,7 +41104,7 @@
       <c r="I554"/>
       <c r="J554"/>
       <c r="M554" s="37" t="s">
-        <v>4522</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="555" spans="1:13" x14ac:dyDescent="0.35">
@@ -41124,7 +41127,7 @@
       <c r="I556"/>
       <c r="J556"/>
       <c r="M556" s="37" t="s">
-        <v>4523</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="557" spans="1:13" x14ac:dyDescent="0.35">
@@ -41167,7 +41170,7 @@
       <c r="I560"/>
       <c r="J560"/>
       <c r="M560" s="37" t="s">
-        <v>4524</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="561" spans="1:13" x14ac:dyDescent="0.35">
@@ -41180,7 +41183,7 @@
       <c r="I561"/>
       <c r="J561"/>
       <c r="M561" s="37" t="s">
-        <v>4525</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="562" spans="1:13" x14ac:dyDescent="0.35">
@@ -41261,7 +41264,7 @@
         <v>2673</v>
       </c>
       <c r="M569" s="37" t="s">
-        <v>4526</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="570" spans="1:13" x14ac:dyDescent="0.35">
@@ -41345,7 +41348,7 @@
       <c r="I577"/>
       <c r="J577"/>
       <c r="M577" s="37" t="s">
-        <v>4527</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="578" spans="1:13" x14ac:dyDescent="0.35">
@@ -41358,7 +41361,7 @@
       <c r="I578"/>
       <c r="J578"/>
       <c r="M578" s="37" t="s">
-        <v>4528</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="579" spans="1:13" x14ac:dyDescent="0.35">
@@ -41651,7 +41654,7 @@
       <c r="I607"/>
       <c r="J607"/>
       <c r="M607" s="37" t="s">
-        <v>4529</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.35">
@@ -41764,7 +41767,7 @@
       <c r="I618"/>
       <c r="J618"/>
       <c r="M618" s="37" t="s">
-        <v>4530</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="619" spans="1:13" x14ac:dyDescent="0.35">
@@ -41777,7 +41780,7 @@
       <c r="I619"/>
       <c r="J619"/>
       <c r="M619" s="37" t="s">
-        <v>4531</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="620" spans="1:13" x14ac:dyDescent="0.35">
@@ -43886,7 +43889,7 @@
     </row>
     <row r="833" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A833" s="16" t="s">
-        <v>4031</v>
+        <v>4029</v>
       </c>
       <c r="E833" t="s">
         <v>1836</v>
@@ -43896,7 +43899,7 @@
     </row>
     <row r="834" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A834" s="16" t="s">
-        <v>4032</v>
+        <v>4030</v>
       </c>
       <c r="E834" t="s">
         <v>1838</v>
@@ -43906,7 +43909,7 @@
     </row>
     <row r="835" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A835" s="16" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="E835" t="s">
         <v>1840</v>
@@ -43916,7 +43919,7 @@
     </row>
     <row r="836" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A836" s="16" t="s">
-        <v>4034</v>
+        <v>4032</v>
       </c>
       <c r="E836" t="s">
         <v>1842</v>
@@ -43926,7 +43929,7 @@
     </row>
     <row r="837" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A837" s="16" t="s">
-        <v>4035</v>
+        <v>4033</v>
       </c>
       <c r="E837" t="s">
         <v>1844</v>
@@ -43936,7 +43939,7 @@
     </row>
     <row r="838" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A838" s="16" t="s">
-        <v>4036</v>
+        <v>4034</v>
       </c>
       <c r="E838" t="s">
         <v>1846</v>
@@ -43946,7 +43949,7 @@
     </row>
     <row r="839" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A839" s="16" t="s">
-        <v>4037</v>
+        <v>4035</v>
       </c>
       <c r="E839" t="s">
         <v>1848</v>
@@ -43956,7 +43959,7 @@
     </row>
     <row r="840" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A840" s="16" t="s">
-        <v>4038</v>
+        <v>4036</v>
       </c>
       <c r="E840" t="s">
         <v>1850</v>
@@ -43966,7 +43969,7 @@
     </row>
     <row r="841" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A841" s="16" t="s">
-        <v>4039</v>
+        <v>4037</v>
       </c>
       <c r="E841" t="s">
         <v>1852</v>
@@ -43976,7 +43979,7 @@
     </row>
     <row r="842" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A842" s="16" t="s">
-        <v>4040</v>
+        <v>4038</v>
       </c>
       <c r="E842" t="s">
         <v>1854</v>
@@ -43986,7 +43989,7 @@
     </row>
     <row r="843" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A843" s="16" t="s">
-        <v>4041</v>
+        <v>4039</v>
       </c>
       <c r="E843" t="s">
         <v>1856</v>
@@ -43996,7 +43999,7 @@
     </row>
     <row r="844" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A844" s="16" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
       <c r="E844" t="s">
         <v>1858</v>
@@ -44006,7 +44009,7 @@
     </row>
     <row r="845" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A845" s="16" t="s">
-        <v>4043</v>
+        <v>4041</v>
       </c>
       <c r="E845" t="s">
         <v>1860</v>
@@ -44016,7 +44019,7 @@
     </row>
     <row r="846" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A846" s="16" t="s">
-        <v>4044</v>
+        <v>4042</v>
       </c>
       <c r="E846" t="s">
         <v>1862</v>
@@ -44026,7 +44029,7 @@
     </row>
     <row r="847" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A847" s="16" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
       <c r="E847" t="s">
         <v>1864</v>
@@ -44036,7 +44039,7 @@
     </row>
     <row r="848" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A848" s="16" t="s">
-        <v>4046</v>
+        <v>4044</v>
       </c>
       <c r="E848" t="s">
         <v>1866</v>
@@ -44046,7 +44049,7 @@
     </row>
     <row r="849" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A849" s="16" t="s">
-        <v>4047</v>
+        <v>4045</v>
       </c>
       <c r="E849" t="s">
         <v>1868</v>
@@ -44056,7 +44059,7 @@
     </row>
     <row r="850" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A850" s="16" t="s">
-        <v>4048</v>
+        <v>4046</v>
       </c>
       <c r="E850" t="s">
         <v>1870</v>
@@ -44066,7 +44069,7 @@
     </row>
     <row r="851" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A851" s="16" t="s">
-        <v>4049</v>
+        <v>4047</v>
       </c>
       <c r="E851" t="s">
         <v>1872</v>
@@ -44076,7 +44079,7 @@
     </row>
     <row r="852" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A852" s="16" t="s">
-        <v>4050</v>
+        <v>4048</v>
       </c>
       <c r="E852" t="s">
         <v>1874</v>
@@ -44086,7 +44089,7 @@
     </row>
     <row r="853" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A853" s="16" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
       <c r="E853" t="s">
         <v>1876</v>
@@ -44096,7 +44099,7 @@
     </row>
     <row r="854" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A854" s="16" t="s">
-        <v>4052</v>
+        <v>4050</v>
       </c>
       <c r="E854" t="s">
         <v>1878</v>
@@ -44106,7 +44109,7 @@
     </row>
     <row r="855" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A855" s="16" t="s">
-        <v>4053</v>
+        <v>4051</v>
       </c>
       <c r="E855" t="s">
         <v>1880</v>
@@ -44116,7 +44119,7 @@
     </row>
     <row r="856" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A856" s="16" t="s">
-        <v>4127</v>
+        <v>4125</v>
       </c>
       <c r="E856" t="s">
         <v>1882</v>
@@ -44126,7 +44129,7 @@
     </row>
     <row r="857" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A857" s="16" t="s">
-        <v>4128</v>
+        <v>4126</v>
       </c>
       <c r="E857" t="s">
         <v>1884</v>
@@ -44136,7 +44139,7 @@
     </row>
     <row r="858" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A858" s="16" t="s">
-        <v>4229</v>
+        <v>4227</v>
       </c>
       <c r="E858" t="s">
         <v>1886</v>
@@ -44144,7 +44147,7 @@
     </row>
     <row r="859" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A859" s="16" t="s">
-        <v>4230</v>
+        <v>4228</v>
       </c>
       <c r="E859" t="s">
         <v>1888</v>
@@ -44152,7 +44155,7 @@
     </row>
     <row r="860" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A860" s="16" t="s">
-        <v>4231</v>
+        <v>4229</v>
       </c>
       <c r="E860" t="s">
         <v>1890</v>
@@ -44160,7 +44163,7 @@
     </row>
     <row r="861" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A861" s="16" t="s">
-        <v>4232</v>
+        <v>4230</v>
       </c>
       <c r="E861" t="s">
         <v>1892</v>
@@ -44168,7 +44171,7 @@
     </row>
     <row r="862" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A862" s="16" t="s">
-        <v>4233</v>
+        <v>4231</v>
       </c>
       <c r="E862" t="s">
         <v>1894</v>
@@ -44176,7 +44179,7 @@
     </row>
     <row r="863" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A863" s="16" t="s">
-        <v>4234</v>
+        <v>4232</v>
       </c>
       <c r="E863" t="s">
         <v>1898</v>
@@ -44184,7 +44187,7 @@
     </row>
     <row r="864" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A864" s="16" t="s">
-        <v>4235</v>
+        <v>4233</v>
       </c>
       <c r="E864" t="s">
         <v>1900</v>
@@ -44192,7 +44195,7 @@
     </row>
     <row r="865" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A865" s="16" t="s">
-        <v>4236</v>
+        <v>4234</v>
       </c>
       <c r="E865" t="s">
         <v>1902</v>
@@ -44200,7 +44203,7 @@
     </row>
     <row r="866" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A866" s="16" t="s">
-        <v>4237</v>
+        <v>4235</v>
       </c>
       <c r="E866" t="s">
         <v>1904</v>
@@ -44208,7 +44211,7 @@
     </row>
     <row r="867" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A867" s="16" t="s">
-        <v>4238</v>
+        <v>4236</v>
       </c>
       <c r="E867" t="s">
         <v>1906</v>
@@ -44216,7 +44219,7 @@
     </row>
     <row r="868" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A868" s="16" t="s">
-        <v>4239</v>
+        <v>4237</v>
       </c>
       <c r="E868" t="s">
         <v>1908</v>
@@ -44226,7 +44229,7 @@
     </row>
     <row r="869" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A869" s="16" t="s">
-        <v>4240</v>
+        <v>4238</v>
       </c>
       <c r="E869" t="s">
         <v>1910</v>
@@ -44236,7 +44239,7 @@
     </row>
     <row r="870" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A870" s="16" t="s">
-        <v>4241</v>
+        <v>4239</v>
       </c>
       <c r="E870" t="s">
         <v>1912</v>
@@ -44246,7 +44249,7 @@
     </row>
     <row r="871" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A871" s="16" t="s">
-        <v>4242</v>
+        <v>4240</v>
       </c>
       <c r="E871" t="s">
         <v>1914</v>
@@ -44256,7 +44259,7 @@
     </row>
     <row r="872" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A872" s="16" t="s">
-        <v>4243</v>
+        <v>4241</v>
       </c>
       <c r="E872" t="s">
         <v>1916</v>
@@ -44266,7 +44269,7 @@
     </row>
     <row r="873" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A873" s="16" t="s">
-        <v>4244</v>
+        <v>4242</v>
       </c>
       <c r="E873" t="s">
         <v>1918</v>
@@ -44282,7 +44285,7 @@
     </row>
     <row r="874" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A874" s="16" t="s">
-        <v>4245</v>
+        <v>4243</v>
       </c>
       <c r="E874" t="s">
         <v>2680</v>
@@ -44295,7 +44298,7 @@
     </row>
     <row r="875" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A875" s="16" t="s">
-        <v>4500</v>
+        <v>4496</v>
       </c>
       <c r="E875" s="65" t="s">
         <v>1920</v>
@@ -44303,12 +44306,12 @@
       <c r="I875"/>
       <c r="J875"/>
       <c r="M875" s="37" t="s">
-        <v>4532</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="876" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A876" s="16" t="s">
-        <v>4501</v>
+        <v>4497</v>
       </c>
       <c r="E876" t="s">
         <v>1922</v>
@@ -44318,7 +44321,7 @@
     </row>
     <row r="877" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A877" s="16" t="s">
-        <v>4502</v>
+        <v>4498</v>
       </c>
       <c r="E877" t="s">
         <v>1924</v>
@@ -44342,8 +44345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44471,7 +44474,7 @@
         <v>531</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>4263</v>
+        <v>4261</v>
       </c>
       <c r="I5" s="25"/>
     </row>
@@ -44570,7 +44573,7 @@
         <v>531</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>4263</v>
+        <v>4261</v>
       </c>
       <c r="I10" s="25" t="s">
         <v>2303</v>
@@ -44596,7 +44599,7 @@
         <v>2287</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>4264</v>
+        <v>4262</v>
       </c>
       <c r="I11" s="25" t="s">
         <v>3656</v>
@@ -44616,7 +44619,7 @@
         <v>531</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>4265</v>
+        <v>4263</v>
       </c>
       <c r="I12" s="25"/>
     </row>
@@ -44634,7 +44637,7 @@
         <v>2287</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>4266</v>
+        <v>4264</v>
       </c>
       <c r="I13" s="25"/>
     </row>
@@ -45073,7 +45076,7 @@
         <v>2277</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>4267</v>
+        <v>4265</v>
       </c>
       <c r="I35" s="25" t="s">
         <v>2757</v>
@@ -45264,7 +45267,7 @@
         <v>2277</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>4268</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -45298,7 +45301,7 @@
         <v>2277</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>4267</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -45315,7 +45318,7 @@
         <v>2287</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>4264</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -45349,7 +45352,7 @@
         <v>2277</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>4126</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -45384,7 +45387,7 @@
         <v>2308</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>4137</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -45404,10 +45407,10 @@
         <v>531</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>4139</v>
+        <v>4137</v>
       </c>
       <c r="I53" s="25" t="s">
-        <v>4138</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -45418,13 +45421,13 @@
         <v>529</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>4140</v>
+        <v>4138</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>531</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>4141</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -45441,7 +45444,7 @@
         <v>531</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>4262</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -45729,8 +45732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K438"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E338" sqref="E338"/>
+    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="C363" sqref="C363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -55414,7 +55417,7 @@
         <v>639</v>
       </c>
       <c r="C335" s="59" t="s">
-        <v>4101</v>
+        <v>4099</v>
       </c>
       <c r="D335" s="24" t="s">
         <v>3958</v>
@@ -55443,10 +55446,10 @@
         <v>637</v>
       </c>
       <c r="C336" s="59" t="s">
-        <v>4533</v>
+        <v>4529</v>
       </c>
       <c r="D336" s="24" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
       <c r="E336" t="s">
         <v>2113</v>
@@ -55458,7 +55461,7 @@
         <v>2021</v>
       </c>
       <c r="I336" t="s">
-        <v>4542</v>
+        <v>4538</v>
       </c>
       <c r="J336" t="s">
         <v>643</v>
@@ -55472,10 +55475,10 @@
         <v>637</v>
       </c>
       <c r="C337" s="59" t="s">
-        <v>4534</v>
+        <v>4530</v>
       </c>
       <c r="D337" s="24" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
       <c r="E337" t="s">
         <v>2113</v>
@@ -55487,7 +55490,7 @@
         <v>2021</v>
       </c>
       <c r="I337" t="s">
-        <v>4542</v>
+        <v>4538</v>
       </c>
       <c r="J337" t="s">
         <v>643</v>
@@ -55501,10 +55504,10 @@
         <v>637</v>
       </c>
       <c r="C338" s="59" t="s">
-        <v>4535</v>
+        <v>4531</v>
       </c>
       <c r="D338" s="24" t="s">
-        <v>4544</v>
+        <v>4543</v>
       </c>
       <c r="E338" t="s">
         <v>2113</v>
@@ -55516,7 +55519,7 @@
         <v>2021</v>
       </c>
       <c r="I338" t="s">
-        <v>4542</v>
+        <v>4538</v>
       </c>
       <c r="J338" t="s">
         <v>643</v>
@@ -55530,13 +55533,13 @@
         <v>639</v>
       </c>
       <c r="C339" s="59" t="s">
-        <v>4111</v>
+        <v>4109</v>
       </c>
       <c r="D339" s="24" t="s">
         <v>3961</v>
       </c>
       <c r="E339" t="s">
-        <v>4125</v>
+        <v>4123</v>
       </c>
       <c r="F339" s="31" t="s">
         <v>642</v>
@@ -55646,7 +55649,7 @@
         <v>639</v>
       </c>
       <c r="C343" s="59" t="s">
-        <v>4112</v>
+        <v>4110</v>
       </c>
       <c r="D343" s="24" t="s">
         <v>3627</v>
@@ -55675,7 +55678,7 @@
         <v>639</v>
       </c>
       <c r="C344" s="59" t="s">
-        <v>4113</v>
+        <v>4111</v>
       </c>
       <c r="D344" s="24" t="s">
         <v>3963</v>
@@ -55704,7 +55707,7 @@
         <v>639</v>
       </c>
       <c r="C345" s="59" t="s">
-        <v>4114</v>
+        <v>4112</v>
       </c>
       <c r="D345" s="24" t="s">
         <v>3964</v>
@@ -55733,7 +55736,7 @@
         <v>639</v>
       </c>
       <c r="C346" s="59" t="s">
-        <v>4115</v>
+        <v>4113</v>
       </c>
       <c r="D346" s="24" t="s">
         <v>3965</v>
@@ -55762,7 +55765,7 @@
         <v>639</v>
       </c>
       <c r="C347" s="59" t="s">
-        <v>4116</v>
+        <v>4114</v>
       </c>
       <c r="D347" s="24" t="s">
         <v>3966</v>
@@ -56139,13 +56142,13 @@
         <v>639</v>
       </c>
       <c r="C360" s="60" t="s">
+        <v>4116</v>
+      </c>
+      <c r="D360" s="24" t="s">
         <v>4118</v>
       </c>
-      <c r="D360" s="24" t="s">
-        <v>4120</v>
-      </c>
       <c r="E360" t="s">
-        <v>4119</v>
+        <v>4117</v>
       </c>
       <c r="F360" s="31" t="s">
         <v>642</v>
@@ -56154,7 +56157,7 @@
         <v>2021</v>
       </c>
       <c r="I360" t="s">
-        <v>4121</v>
+        <v>4119</v>
       </c>
       <c r="J360" t="s">
         <v>643</v>
@@ -56168,13 +56171,13 @@
         <v>639</v>
       </c>
       <c r="C361" s="60" t="s">
-        <v>4133</v>
+        <v>4131</v>
       </c>
       <c r="D361" s="24" t="s">
-        <v>4124</v>
+        <v>4122</v>
       </c>
       <c r="E361" t="s">
-        <v>4123</v>
+        <v>4121</v>
       </c>
       <c r="F361" s="31" t="s">
         <v>642</v>
@@ -56183,7 +56186,7 @@
         <v>2021</v>
       </c>
       <c r="I361" t="s">
-        <v>4121</v>
+        <v>4119</v>
       </c>
       <c r="J361" t="s">
         <v>643</v>
@@ -56197,7 +56200,7 @@
         <v>639</v>
       </c>
       <c r="C362" s="60" t="s">
-        <v>3976</v>
+        <v>4547</v>
       </c>
       <c r="D362" s="24" t="s">
         <v>3973</v>
@@ -56226,7 +56229,7 @@
         <v>639</v>
       </c>
       <c r="C363" s="60" t="s">
-        <v>3977</v>
+        <v>4548</v>
       </c>
       <c r="D363" s="24" t="s">
         <v>3975</v>
@@ -56458,13 +56461,13 @@
         <v>639</v>
       </c>
       <c r="C371" s="59" t="s">
+        <v>3980</v>
+      </c>
+      <c r="D371" s="24" t="s">
         <v>3982</v>
       </c>
-      <c r="D371" s="24" t="s">
+      <c r="E371" t="s">
         <v>3984</v>
-      </c>
-      <c r="E371" t="s">
-        <v>3986</v>
       </c>
       <c r="F371" s="31" t="s">
         <v>642</v>
@@ -56473,7 +56476,7 @@
         <v>2021</v>
       </c>
       <c r="I371" t="s">
-        <v>3987</v>
+        <v>3985</v>
       </c>
       <c r="J371" t="s">
         <v>643</v>
@@ -56487,13 +56490,13 @@
         <v>639</v>
       </c>
       <c r="C372" s="59" t="s">
+        <v>3981</v>
+      </c>
+      <c r="D372" s="24" t="s">
         <v>3983</v>
       </c>
-      <c r="D372" s="24" t="s">
-        <v>3985</v>
-      </c>
       <c r="E372" t="s">
-        <v>3986</v>
+        <v>3984</v>
       </c>
       <c r="F372" s="31" t="s">
         <v>642</v>
@@ -56502,7 +56505,7 @@
         <v>2021</v>
       </c>
       <c r="I372" t="s">
-        <v>3987</v>
+        <v>3985</v>
       </c>
       <c r="J372" t="s">
         <v>643</v>
@@ -56516,13 +56519,13 @@
         <v>639</v>
       </c>
       <c r="C373" s="59" t="s">
+        <v>3986</v>
+      </c>
+      <c r="D373" s="24" t="s">
         <v>3988</v>
       </c>
-      <c r="D373" s="24" t="s">
-        <v>3990</v>
-      </c>
       <c r="E373" t="s">
-        <v>3986</v>
+        <v>3984</v>
       </c>
       <c r="F373" s="31" t="s">
         <v>642</v>
@@ -56531,7 +56534,7 @@
         <v>2021</v>
       </c>
       <c r="I373" t="s">
-        <v>3987</v>
+        <v>3985</v>
       </c>
       <c r="J373" t="s">
         <v>643</v>
@@ -56545,13 +56548,13 @@
         <v>639</v>
       </c>
       <c r="C374" s="59" t="s">
+        <v>3987</v>
+      </c>
+      <c r="D374" s="24" t="s">
         <v>3989</v>
       </c>
-      <c r="D374" s="24" t="s">
-        <v>3991</v>
-      </c>
       <c r="E374" t="s">
-        <v>3986</v>
+        <v>3984</v>
       </c>
       <c r="F374" s="31" t="s">
         <v>642</v>
@@ -56560,7 +56563,7 @@
         <v>2021</v>
       </c>
       <c r="I374" t="s">
-        <v>3987</v>
+        <v>3985</v>
       </c>
       <c r="J374" t="s">
         <v>643</v>
@@ -56574,10 +56577,10 @@
         <v>639</v>
       </c>
       <c r="C375" s="60" t="s">
-        <v>3998</v>
+        <v>3996</v>
       </c>
       <c r="D375" s="24" t="s">
-        <v>3999</v>
+        <v>3997</v>
       </c>
       <c r="E375" t="s">
         <v>2151</v>
@@ -56603,10 +56606,10 @@
         <v>639</v>
       </c>
       <c r="C376" s="59" t="s">
-        <v>4018</v>
+        <v>4016</v>
       </c>
       <c r="D376" s="24" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="E376" t="s">
         <v>2113</v>
@@ -56618,7 +56621,7 @@
         <v>2021</v>
       </c>
       <c r="I376" t="s">
-        <v>4020</v>
+        <v>4018</v>
       </c>
       <c r="J376" t="s">
         <v>643</v>
@@ -56632,10 +56635,10 @@
         <v>639</v>
       </c>
       <c r="C377" s="60" t="s">
-        <v>4142</v>
+        <v>4140</v>
       </c>
       <c r="D377" s="24" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
       <c r="E377" t="s">
         <v>2113</v>
@@ -56647,7 +56650,7 @@
         <v>2021</v>
       </c>
       <c r="I377" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
       <c r="J377" t="s">
         <v>643</v>
@@ -56661,10 +56664,10 @@
         <v>639</v>
       </c>
       <c r="C378" s="60" t="s">
-        <v>4143</v>
+        <v>4141</v>
       </c>
       <c r="D378" s="24" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
       <c r="E378" t="s">
         <v>2113</v>
@@ -56676,7 +56679,7 @@
         <v>2021</v>
       </c>
       <c r="I378" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
       <c r="J378" t="s">
         <v>643</v>
@@ -56690,10 +56693,10 @@
         <v>639</v>
       </c>
       <c r="C379" s="60" t="s">
-        <v>4144</v>
+        <v>4142</v>
       </c>
       <c r="D379" s="24" t="s">
-        <v>4134</v>
+        <v>4132</v>
       </c>
       <c r="E379" t="s">
         <v>2113</v>
@@ -56705,7 +56708,7 @@
         <v>2021</v>
       </c>
       <c r="I379" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
       <c r="J379" t="s">
         <v>643</v>
@@ -56719,10 +56722,10 @@
         <v>639</v>
       </c>
       <c r="C380" s="60" t="s">
-        <v>4145</v>
+        <v>4143</v>
       </c>
       <c r="D380" s="24" t="s">
-        <v>4024</v>
+        <v>4022</v>
       </c>
       <c r="E380" t="s">
         <v>2113</v>
@@ -56734,7 +56737,7 @@
         <v>2021</v>
       </c>
       <c r="I380" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
       <c r="J380" t="s">
         <v>643</v>
@@ -56748,10 +56751,10 @@
         <v>639</v>
       </c>
       <c r="C381" s="60" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D381" s="24" t="s">
-        <v>4135</v>
+        <v>4133</v>
       </c>
       <c r="E381" t="s">
         <v>2113</v>
@@ -56763,7 +56766,7 @@
         <v>2021</v>
       </c>
       <c r="I381" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
       <c r="J381" t="s">
         <v>643</v>
@@ -56777,10 +56780,10 @@
         <v>639</v>
       </c>
       <c r="C382" s="60" t="s">
-        <v>4147</v>
+        <v>4145</v>
       </c>
       <c r="D382" s="24" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
       <c r="E382" t="s">
         <v>2113</v>
@@ -56792,7 +56795,7 @@
         <v>2021</v>
       </c>
       <c r="I382" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="J382" t="s">
         <v>643</v>
@@ -56806,10 +56809,10 @@
         <v>639</v>
       </c>
       <c r="C383" s="60" t="s">
-        <v>4148</v>
+        <v>4146</v>
       </c>
       <c r="D383" s="24" t="s">
-        <v>4136</v>
+        <v>4134</v>
       </c>
       <c r="E383" t="s">
         <v>2113</v>
@@ -56821,7 +56824,7 @@
         <v>2021</v>
       </c>
       <c r="I383" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="J383" t="s">
         <v>643</v>
@@ -57119,7 +57122,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
-        <v>4077</v>
+        <v>4075</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>639</v>
@@ -57148,7 +57151,7 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
-        <v>4078</v>
+        <v>4076</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>639</v>
@@ -57177,7 +57180,7 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
-        <v>4079</v>
+        <v>4077</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>639</v>
@@ -57206,7 +57209,7 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
-        <v>4080</v>
+        <v>4078</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>639</v>
@@ -57235,7 +57238,7 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
-        <v>4081</v>
+        <v>4079</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>639</v>
@@ -57264,7 +57267,7 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
-        <v>4082</v>
+        <v>4080</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>639</v>
@@ -57293,7 +57296,7 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
-        <v>4083</v>
+        <v>4081</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>639</v>
@@ -57322,7 +57325,7 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
-        <v>4084</v>
+        <v>4082</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>639</v>
@@ -57351,7 +57354,7 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>639</v>
@@ -57380,7 +57383,7 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>639</v>
@@ -57409,7 +57412,7 @@
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
-        <v>4087</v>
+        <v>4085</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>639</v>
@@ -57438,7 +57441,7 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
-        <v>4088</v>
+        <v>4086</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>639</v>
@@ -57467,7 +57470,7 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
-        <v>4089</v>
+        <v>4087</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>639</v>
@@ -57496,7 +57499,7 @@
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
-        <v>4090</v>
+        <v>4088</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>639</v>
@@ -57525,7 +57528,7 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
-        <v>4091</v>
+        <v>4089</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>639</v>
@@ -57554,7 +57557,7 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
-        <v>4092</v>
+        <v>4090</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>639</v>
@@ -57583,7 +57586,7 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
-        <v>4093</v>
+        <v>4091</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>639</v>
@@ -57612,16 +57615,16 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
-        <v>4094</v>
+        <v>4092</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C411" s="67" t="s">
-        <v>4149</v>
+        <v>4147</v>
       </c>
       <c r="D411" s="24" t="s">
-        <v>4027</v>
+        <v>4025</v>
       </c>
       <c r="E411" t="s">
         <v>2113</v>
@@ -57633,7 +57636,7 @@
         <v>2021</v>
       </c>
       <c r="I411" t="s">
-        <v>4030</v>
+        <v>4028</v>
       </c>
       <c r="J411" t="s">
         <v>643</v>
@@ -57641,16 +57644,16 @@
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
-        <v>4095</v>
+        <v>4093</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C412" s="67" t="s">
-        <v>4150</v>
+        <v>4148</v>
       </c>
       <c r="D412" s="24" t="s">
-        <v>4028</v>
+        <v>4026</v>
       </c>
       <c r="E412" t="s">
         <v>2113</v>
@@ -57662,7 +57665,7 @@
         <v>2021</v>
       </c>
       <c r="I412" t="s">
-        <v>4030</v>
+        <v>4028</v>
       </c>
       <c r="J412" t="s">
         <v>643</v>
@@ -57670,7 +57673,7 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
-        <v>4096</v>
+        <v>4094</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>639</v>
@@ -57699,7 +57702,7 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
-        <v>4097</v>
+        <v>4095</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>639</v>
@@ -57728,7 +57731,7 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
-        <v>4098</v>
+        <v>4096</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>639</v>
@@ -57757,7 +57760,7 @@
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
-        <v>4099</v>
+        <v>4097</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>639</v>
@@ -57786,16 +57789,16 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
-        <v>4131</v>
+        <v>4129</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C417" s="67" t="s">
-        <v>4161</v>
+        <v>4159</v>
       </c>
       <c r="D417" s="24" t="s">
-        <v>4162</v>
+        <v>4160</v>
       </c>
       <c r="E417" t="s">
         <v>2113</v>
@@ -57807,7 +57810,7 @@
         <v>2021</v>
       </c>
       <c r="I417" t="s">
-        <v>4163</v>
+        <v>4161</v>
       </c>
       <c r="J417" t="s">
         <v>643</v>
@@ -57815,16 +57818,16 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
-        <v>4132</v>
+        <v>4130</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C418" s="67" t="s">
-        <v>4175</v>
+        <v>4173</v>
       </c>
       <c r="D418" s="24" t="s">
-        <v>4174</v>
+        <v>4172</v>
       </c>
       <c r="E418" t="s">
         <v>2113</v>
@@ -57836,7 +57839,7 @@
         <v>2021</v>
       </c>
       <c r="I418" t="s">
-        <v>4173</v>
+        <v>4171</v>
       </c>
       <c r="J418" t="s">
         <v>643</v>
@@ -57844,16 +57847,16 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
-        <v>4246</v>
+        <v>4244</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C419" s="67" t="s">
-        <v>4175</v>
+        <v>4173</v>
       </c>
       <c r="D419" s="24" t="s">
-        <v>4176</v>
+        <v>4174</v>
       </c>
       <c r="E419" t="s">
         <v>2113</v>
@@ -57865,7 +57868,7 @@
         <v>2021</v>
       </c>
       <c r="I419" t="s">
-        <v>4173</v>
+        <v>4171</v>
       </c>
       <c r="J419" t="s">
         <v>643</v>
@@ -57873,16 +57876,16 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
-        <v>4247</v>
+        <v>4245</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C420" s="67" t="s">
+        <v>4173</v>
+      </c>
+      <c r="D420" s="24" t="s">
         <v>4175</v>
-      </c>
-      <c r="D420" s="24" t="s">
-        <v>4177</v>
       </c>
       <c r="E420" t="s">
         <v>2113</v>
@@ -57894,7 +57897,7 @@
         <v>2021</v>
       </c>
       <c r="I420" t="s">
-        <v>4173</v>
+        <v>4171</v>
       </c>
       <c r="J420" t="s">
         <v>643</v>
@@ -57902,16 +57905,16 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
-        <v>4248</v>
+        <v>4246</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C421" s="67" t="s">
-        <v>4175</v>
+        <v>4173</v>
       </c>
       <c r="D421" s="24" t="s">
-        <v>4178</v>
+        <v>4176</v>
       </c>
       <c r="E421" t="s">
         <v>2113</v>
@@ -57923,7 +57926,7 @@
         <v>2021</v>
       </c>
       <c r="I421" t="s">
-        <v>4173</v>
+        <v>4171</v>
       </c>
       <c r="J421" t="s">
         <v>643</v>
@@ -57931,16 +57934,16 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C422" s="67" t="s">
-        <v>4175</v>
+        <v>4173</v>
       </c>
       <c r="D422" s="24" t="s">
-        <v>4179</v>
+        <v>4177</v>
       </c>
       <c r="E422" t="s">
         <v>2113</v>
@@ -57952,7 +57955,7 @@
         <v>2021</v>
       </c>
       <c r="I422" t="s">
-        <v>4173</v>
+        <v>4171</v>
       </c>
       <c r="J422" t="s">
         <v>643</v>
@@ -57960,16 +57963,16 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
-        <v>4250</v>
+        <v>4248</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C423" s="67" t="s">
-        <v>4175</v>
+        <v>4173</v>
       </c>
       <c r="D423" s="24" t="s">
-        <v>4180</v>
+        <v>4178</v>
       </c>
       <c r="E423" t="s">
         <v>2113</v>
@@ -57981,7 +57984,7 @@
         <v>2021</v>
       </c>
       <c r="I423" t="s">
-        <v>4173</v>
+        <v>4171</v>
       </c>
       <c r="J423" t="s">
         <v>643</v>
@@ -57989,16 +57992,16 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
-        <v>4251</v>
+        <v>4249</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C424" s="67" t="s">
-        <v>4175</v>
+        <v>4173</v>
       </c>
       <c r="D424" s="24" t="s">
-        <v>4181</v>
+        <v>4179</v>
       </c>
       <c r="E424" t="s">
         <v>2113</v>
@@ -58010,7 +58013,7 @@
         <v>2021</v>
       </c>
       <c r="I424" t="s">
-        <v>4173</v>
+        <v>4171</v>
       </c>
       <c r="J424" t="s">
         <v>643</v>
@@ -58018,16 +58021,16 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
-        <v>4252</v>
+        <v>4250</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C425" s="67" t="s">
-        <v>4175</v>
+        <v>4173</v>
       </c>
       <c r="D425" s="24" t="s">
-        <v>4182</v>
+        <v>4180</v>
       </c>
       <c r="E425" t="s">
         <v>2113</v>
@@ -58039,7 +58042,7 @@
         <v>2021</v>
       </c>
       <c r="I425" t="s">
-        <v>4173</v>
+        <v>4171</v>
       </c>
       <c r="J425" t="s">
         <v>643</v>
@@ -58047,16 +58050,16 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
-        <v>4253</v>
+        <v>4251</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C426" s="67" t="s">
-        <v>4175</v>
+        <v>4173</v>
       </c>
       <c r="D426" s="24" t="s">
-        <v>4183</v>
+        <v>4181</v>
       </c>
       <c r="E426" t="s">
         <v>2113</v>
@@ -58068,7 +58071,7 @@
         <v>2021</v>
       </c>
       <c r="I426" t="s">
-        <v>4173</v>
+        <v>4171</v>
       </c>
       <c r="J426" t="s">
         <v>643</v>
@@ -58076,16 +58079,16 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
-        <v>4254</v>
+        <v>4252</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C427" s="67" t="s">
-        <v>4185</v>
+        <v>4183</v>
       </c>
       <c r="D427" s="24" t="s">
-        <v>4186</v>
+        <v>4184</v>
       </c>
       <c r="E427" t="s">
         <v>2113</v>
@@ -58097,7 +58100,7 @@
         <v>2021</v>
       </c>
       <c r="I427" t="s">
-        <v>4187</v>
+        <v>4185</v>
       </c>
       <c r="J427" t="s">
         <v>643</v>
@@ -58105,16 +58108,16 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
-        <v>4255</v>
+        <v>4253</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C428" s="67" t="s">
-        <v>4194</v>
+        <v>4192</v>
       </c>
       <c r="D428" s="24" t="s">
-        <v>4190</v>
+        <v>4188</v>
       </c>
       <c r="E428" t="s">
         <v>3641</v>
@@ -58126,7 +58129,7 @@
         <v>2021</v>
       </c>
       <c r="I428" t="s">
-        <v>4189</v>
+        <v>4187</v>
       </c>
       <c r="J428" t="s">
         <v>643</v>
@@ -58134,16 +58137,16 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
-        <v>4256</v>
+        <v>4254</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C429" s="67" t="s">
-        <v>4195</v>
+        <v>4193</v>
       </c>
       <c r="D429" s="24" t="s">
-        <v>4196</v>
+        <v>4194</v>
       </c>
       <c r="E429" t="s">
         <v>3641</v>
@@ -58155,7 +58158,7 @@
         <v>2021</v>
       </c>
       <c r="I429" t="s">
-        <v>4197</v>
+        <v>4195</v>
       </c>
       <c r="J429" t="s">
         <v>643</v>
@@ -58163,16 +58166,16 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
-        <v>4257</v>
+        <v>4255</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C430" s="67" t="s">
-        <v>4200</v>
+        <v>4198</v>
       </c>
       <c r="D430" s="24" t="s">
-        <v>4201</v>
+        <v>4199</v>
       </c>
       <c r="E430" t="s">
         <v>3641</v>
@@ -58184,7 +58187,7 @@
         <v>2021</v>
       </c>
       <c r="I430" t="s">
-        <v>4202</v>
+        <v>4200</v>
       </c>
       <c r="J430" t="s">
         <v>643</v>
@@ -58192,16 +58195,16 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
-        <v>4258</v>
+        <v>4256</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C431" s="67" t="s">
-        <v>4211</v>
+        <v>4209</v>
       </c>
       <c r="D431" s="24" t="s">
-        <v>4203</v>
+        <v>4201</v>
       </c>
       <c r="E431" t="s">
         <v>3641</v>
@@ -58213,7 +58216,7 @@
         <v>2021</v>
       </c>
       <c r="I431" t="s">
-        <v>4205</v>
+        <v>4203</v>
       </c>
       <c r="J431" t="s">
         <v>643</v>
@@ -58221,16 +58224,16 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
-        <v>4259</v>
+        <v>4257</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C432" s="67" t="s">
-        <v>4212</v>
+        <v>4210</v>
       </c>
       <c r="D432" s="24" t="s">
-        <v>4204</v>
+        <v>4202</v>
       </c>
       <c r="E432" t="s">
         <v>3641</v>
@@ -58242,7 +58245,7 @@
         <v>2021</v>
       </c>
       <c r="I432" t="s">
-        <v>4206</v>
+        <v>4204</v>
       </c>
       <c r="J432" t="s">
         <v>643</v>
@@ -58258,7 +58261,7 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
-        <v>4260</v>
+        <v>4258</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>639</v>
@@ -58287,7 +58290,7 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
-        <v>4261</v>
+        <v>4259</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>639</v>
@@ -58316,7 +58319,7 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
-        <v>4536</v>
+        <v>4532</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>639</v>
@@ -58345,7 +58348,7 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
-        <v>4537</v>
+        <v>4533</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>2114</v>
@@ -58371,7 +58374,7 @@
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
-        <v>4538</v>
+        <v>4534</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>2114</v>
@@ -58406,7 +58409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -58436,16 +58441,16 @@
         <v>630</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>4488</v>
+        <v>4486</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>4545</v>
+        <v>4539</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>4546</v>
+        <v>4540</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>528</v>
+        <v>4542</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>840</v>
@@ -58456,7 +58461,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>4548</v>
+        <v>4541</v>
       </c>
       <c r="C2" s="1">
         <v>2021</v>
@@ -58464,15 +58469,15 @@
       <c r="D2" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4495</v>
+      <c r="E2" s="72" t="s">
+        <v>4545</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>2728</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="25" t="s">
-        <v>4489</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -58480,7 +58485,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>4548</v>
+        <v>4541</v>
       </c>
       <c r="C3" s="1">
         <v>2021</v>
@@ -58488,15 +58493,15 @@
       <c r="D3" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>4494</v>
+      <c r="E3" s="72" t="s">
+        <v>4546</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>2728</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="25" t="s">
-        <v>4490</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -58512,17 +58517,15 @@
       <c r="D4" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="E4" s="68" t="s">
-        <v>4547</v>
-      </c>
+      <c r="E4" s="68"/>
       <c r="F4" s="68" t="s">
-        <v>4492</v>
+        <v>4490</v>
       </c>
       <c r="G4" s="69" t="s">
         <v>2728</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>4496</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">

--- a/tmee/data_in/data_dictionary/indicator_dictionary_TM_v8.xlsx
+++ b/tmee/data_in/data_dictionary/indicator_dictionary_TM_v8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16f1c7c3db740efb/UNICEF/TransMonEE/data-etl/tmee/data_in/data_dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{F4B63CBD-989C-41F1-BE67-2BCF2EE5BF3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{25BB6BCF-EE86-4738-8B63-53D99134E498}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{F4B63CBD-989C-41F1-BE67-2BCF2EE5BF3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00D7D6B9-BD7C-4ED6-B594-AF0930FC54DA}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29653,8 +29653,8 @@
   <dimension ref="A1:M877"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E298" sqref="E298"/>
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34681,7 +34681,7 @@
         <v>2317</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>2509</v>
+        <v>4272</v>
       </c>
       <c r="E237" s="50" t="s">
         <v>4357</v>
@@ -34701,7 +34701,7 @@
         <v>2317</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>2509</v>
+        <v>4272</v>
       </c>
       <c r="E238" s="50" t="s">
         <v>4358</v>
@@ -34721,7 +34721,7 @@
         <v>2317</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>2509</v>
+        <v>4272</v>
       </c>
       <c r="E239" s="50" t="s">
         <v>2510</v>

--- a/tmee/data_in/data_dictionary/indicator_dictionary_TM_v8.xlsx
+++ b/tmee/data_in/data_dictionary/indicator_dictionary_TM_v8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16f1c7c3db740efb/UNICEF/TransMonEE/data-etl/tmee/data_in/data_dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{F4B63CBD-989C-41F1-BE67-2BCF2EE5BF3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00D7D6B9-BD7C-4ED6-B594-AF0930FC54DA}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{F4B63CBD-989C-41F1-BE67-2BCF2EE5BF3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D33B7E5F-A0D0-4761-A7A4-B924DE6025B6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Snapshot" sheetId="1" r:id="rId1"/>
@@ -14502,8 +14502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L430"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="G269" sqref="G269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20536,11 +20536,11 @@
         <v>2020</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G177" s="1" t="str">
         <f>VLOOKUP(F177,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>BINARY</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>2073</v>
@@ -20570,11 +20570,11 @@
         <v>2020</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G178" s="1" t="str">
         <f>VLOOKUP(F178,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>BINARY</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>2074</v>
@@ -20604,11 +20604,11 @@
         <v>2020</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G179" s="1" t="str">
         <f>VLOOKUP(F179,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>BINARY</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>2075</v>
@@ -20638,11 +20638,11 @@
         <v>2020</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G180" s="1" t="str">
         <f>VLOOKUP(F180,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>BINARY</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>2076</v>
@@ -23630,11 +23630,11 @@
         <v>2020</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G268" s="1" t="str">
         <f>VLOOKUP(F268,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>BINARY</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>3030</v>
@@ -23664,11 +23664,11 @@
         <v>2020</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G269" s="1" t="str">
         <f>VLOOKUP(F269,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>BINARY</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>3031</v>
@@ -27116,11 +27116,11 @@
         <v>2021</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G370" s="1" t="str">
         <f>VLOOKUP(F370,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>BINARY</v>
       </c>
       <c r="H370" s="1" t="s">
         <v>3798</v>
@@ -27150,11 +27150,11 @@
         <v>2021</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G371" s="1" t="str">
         <f>VLOOKUP(F371,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>BINARY</v>
       </c>
       <c r="H371" s="1" t="s">
         <v>3856</v>
@@ -27184,11 +27184,11 @@
         <v>2021</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G372" s="1" t="str">
         <f>VLOOKUP(F372,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>BINARY</v>
       </c>
       <c r="H372" s="1" t="s">
         <v>3857</v>
@@ -27218,11 +27218,11 @@
         <v>2021</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G373" s="1" t="str">
         <f>VLOOKUP(F373,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>BINARY</v>
       </c>
       <c r="H373" s="1" t="s">
         <v>3858</v>
@@ -27252,11 +27252,11 @@
         <v>2021</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G374" s="1" t="str">
         <f>VLOOKUP(F374,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>BINARY</v>
       </c>
       <c r="H374" s="1" t="s">
         <v>3859</v>
@@ -27286,11 +27286,11 @@
         <v>2021</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G375" s="1" t="str">
         <f>VLOOKUP(F375,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>BINARY</v>
       </c>
       <c r="H375" s="1" t="s">
         <v>3860</v>
@@ -27354,11 +27354,11 @@
         <v>2021</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G377" s="1" t="str">
         <f>VLOOKUP(F377,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>BINARY</v>
       </c>
       <c r="H377" s="1" t="s">
         <v>3917</v>
@@ -27939,11 +27939,11 @@
         <v>PCNT</v>
       </c>
       <c r="H394" s="1" t="s">
-        <v>4073</v>
+        <v>4076</v>
       </c>
       <c r="I394" s="25" t="str">
         <f>VLOOKUP(H394,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>Helix: PT_F_15-49_W-BTNG</v>
+        <v>Helix: PT_F_15-19_MRD</v>
       </c>
       <c r="K394" s="1"/>
     </row>
@@ -27973,11 +27973,11 @@
         <v>PCNT</v>
       </c>
       <c r="H395" s="1" t="s">
-        <v>4074</v>
+        <v>4077</v>
       </c>
       <c r="I395" s="25" t="str">
         <f>VLOOKUP(H395,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>Helix: PT_M_15-49_W-BTNG</v>
+        <v>Helix: PT_M_15-19_MRD</v>
       </c>
       <c r="K395" s="1"/>
     </row>
@@ -28007,11 +28007,11 @@
         <v>PCNT</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>4075</v>
+        <v>4078</v>
       </c>
       <c r="I396" s="25" t="str">
         <f>VLOOKUP(H396,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>Helix: PT_ST_13-15_BUL_30-DYS</v>
+        <v>Helix: PT_F_20-24_MRD_U15</v>
       </c>
       <c r="K396" s="1"/>
     </row>
@@ -28041,11 +28041,11 @@
         <v>PCNT</v>
       </c>
       <c r="H397" s="1" t="s">
-        <v>4076</v>
+        <v>4079</v>
       </c>
       <c r="I397" s="25" t="str">
         <f>VLOOKUP(H397,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>Helix: PT_F_15-19_MRD</v>
+        <v>Helix: PT_F_20-24_MRD_U18</v>
       </c>
       <c r="K397" s="1"/>
     </row>
@@ -28075,11 +28075,11 @@
         <v>PCNT</v>
       </c>
       <c r="H398" s="1" t="s">
-        <v>4077</v>
+        <v>4080</v>
       </c>
       <c r="I398" s="25" t="str">
         <f>VLOOKUP(H398,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>Helix: PT_M_15-19_MRD</v>
+        <v>Helix: PT_M_20-24_MRD_U18</v>
       </c>
       <c r="K398" s="1"/>
     </row>
@@ -28109,11 +28109,11 @@
         <v>PCNT</v>
       </c>
       <c r="H399" s="1" t="s">
-        <v>4078</v>
+        <v>4081</v>
       </c>
       <c r="I399" s="25" t="str">
         <f>VLOOKUP(H399,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>Helix: PT_F_20-24_MRD_U15</v>
+        <v>Helix: PT_CHLD_5-17_LBR_ECON</v>
       </c>
       <c r="K399" s="1"/>
     </row>
@@ -28143,11 +28143,11 @@
         <v>PCNT</v>
       </c>
       <c r="H400" s="1" t="s">
-        <v>4079</v>
+        <v>4082</v>
       </c>
       <c r="I400" s="25" t="str">
         <f>VLOOKUP(H400,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>Helix: PT_F_20-24_MRD_U18</v>
+        <v>Helix: PT_CHLD_5-17_LBR_ECON-HC</v>
       </c>
       <c r="K400" s="1"/>
     </row>
@@ -28177,11 +28177,11 @@
         <v>PCNT</v>
       </c>
       <c r="H401" s="1" t="s">
-        <v>4080</v>
+        <v>4083</v>
       </c>
       <c r="I401" s="25" t="str">
         <f>VLOOKUP(H401,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>Helix: PT_M_20-24_MRD_U18</v>
+        <v>SDG: VC_PRS_UNSNT</v>
       </c>
       <c r="K401" s="1"/>
     </row>
@@ -28211,11 +28211,11 @@
         <v>NUMBER</v>
       </c>
       <c r="H402" s="1" t="s">
-        <v>4081</v>
+        <v>4084</v>
       </c>
       <c r="I402" s="25" t="str">
         <f>VLOOKUP(H402,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>Helix: PT_CHLD_5-17_LBR_ECON</v>
+        <v>ESTAT: JJ_PRISIONERS</v>
       </c>
       <c r="K402" s="1"/>
     </row>
@@ -28245,11 +28245,11 @@
         <v>RATE_100000</v>
       </c>
       <c r="H403" s="1" t="s">
-        <v>4082</v>
+        <v>4085</v>
       </c>
       <c r="I403" s="25" t="str">
         <f>VLOOKUP(H403,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>Helix: PT_CHLD_5-17_LBR_ECON-HC</v>
+        <v>ESTAT: JJ_PRISIONERS_RT</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.35">
@@ -28278,11 +28278,11 @@
         <v>PCNT</v>
       </c>
       <c r="H404" s="1" t="s">
-        <v>4083</v>
+        <v>4086</v>
       </c>
       <c r="I404" s="25" t="str">
         <f>VLOOKUP(H404,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>SDG: VC_PRS_UNSNT</v>
+        <v>Helix: PT_CHLD_Y0T4_REG</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.35">
@@ -28304,18 +28304,18 @@
         <v>2021</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G405" s="1" t="str">
         <f>VLOOKUP(F405,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>BINARY</v>
       </c>
       <c r="H405" s="1" t="s">
-        <v>4084</v>
+        <v>4087</v>
       </c>
       <c r="I405" s="25" t="str">
         <f>VLOOKUP(H405,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>ESTAT: JJ_PRISIONERS</v>
+        <v>SDG: SG_REG_BRTH90N</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.35">
@@ -28337,18 +28337,18 @@
         <v>2021</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G406" s="1" t="str">
         <f>VLOOKUP(F406,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>BINARY</v>
       </c>
       <c r="H406" s="1" t="s">
-        <v>4085</v>
+        <v>4088</v>
       </c>
       <c r="I406" s="25" t="str">
         <f>VLOOKUP(H406,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>ESTAT: JJ_PRISIONERS_RT</v>
+        <v>SDG: SG_REG_DETH75N</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.35">
@@ -28370,18 +28370,18 @@
         <v>2021</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G407" s="1" t="str">
         <f>VLOOKUP(F407,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>BINARY</v>
       </c>
       <c r="H407" s="1" t="s">
-        <v>4086</v>
+        <v>4089</v>
       </c>
       <c r="I407" s="25" t="str">
         <f>VLOOKUP(H407,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>Helix: PT_CHLD_Y0T4_REG</v>
+        <v>SDG: SG_NHR_IMPLN</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.35">
@@ -28403,18 +28403,18 @@
         <v>2021</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G408" s="1" t="str">
         <f>VLOOKUP(F408,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>BINARY</v>
       </c>
       <c r="H408" s="1" t="s">
-        <v>4087</v>
+        <v>4090</v>
       </c>
       <c r="I408" s="25" t="str">
         <f>VLOOKUP(H408,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>SDG: SG_REG_BRTH90N</v>
+        <v>SDG: SG_NHR_INTEXSTN</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.35">
@@ -28436,18 +28436,18 @@
         <v>2021</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G409" s="1" t="str">
         <f>VLOOKUP(F409,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>BINARY</v>
       </c>
       <c r="H409" s="1" t="s">
-        <v>4088</v>
+        <v>4091</v>
       </c>
       <c r="I409" s="25" t="str">
         <f>VLOOKUP(H409,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>SDG: SG_REG_DETH75N</v>
+        <v>SDG: SG_NHR_NOSTUSN</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.35">
@@ -28469,18 +28469,18 @@
         <v>2021</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G410" s="1" t="str">
         <f>VLOOKUP(F410,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>BINARY</v>
       </c>
       <c r="H410" s="1" t="s">
-        <v>4089</v>
+        <v>4092</v>
       </c>
       <c r="I410" s="25" t="str">
         <f>VLOOKUP(H410,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>SDG: SG_NHR_IMPLN</v>
+        <v>SDG: SG_NHR_NOAPPLN</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.35">
@@ -28509,11 +28509,11 @@
         <v>RATE_100</v>
       </c>
       <c r="H411" s="1" t="s">
-        <v>4090</v>
+        <v>4124</v>
       </c>
       <c r="I411" s="25" t="str">
         <f>VLOOKUP(H411,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>SDG: SG_NHR_INTEXSTN</v>
+        <v>SDG: IT_USE_ii99</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.35">
@@ -28542,11 +28542,11 @@
         <v>PCNT</v>
       </c>
       <c r="H412" s="1" t="s">
-        <v>4091</v>
+        <v>4125</v>
       </c>
       <c r="I412" s="25" t="str">
         <f>VLOOKUP(H412,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>SDG: SG_NHR_NOSTUSN</v>
+        <v>SDG: SE_ADT_ACTS</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.35">
@@ -28575,11 +28575,11 @@
         <v>PCNT</v>
       </c>
       <c r="H413" s="1" t="s">
-        <v>4092</v>
+        <v>4239</v>
       </c>
       <c r="I413" s="25" t="str">
         <f>VLOOKUP(H413,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>SDG: SG_NHR_NOAPPLN</v>
+        <v>SDG: SE_ADT_ACTS</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.35">
@@ -28608,11 +28608,11 @@
         <v>PCNT</v>
       </c>
       <c r="H414" s="1" t="s">
-        <v>4124</v>
+        <v>4240</v>
       </c>
       <c r="I414" s="25" t="str">
         <f>VLOOKUP(H414,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>SDG: IT_USE_ii99</v>
+        <v>SDG: SE_ADT_ACTS</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.35">
@@ -28641,7 +28641,7 @@
         <v>PCNT</v>
       </c>
       <c r="H415" s="1" t="s">
-        <v>4125</v>
+        <v>4241</v>
       </c>
       <c r="I415" s="25" t="str">
         <f>VLOOKUP(H415,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28674,7 +28674,7 @@
         <v>PCNT</v>
       </c>
       <c r="H416" s="1" t="s">
-        <v>4239</v>
+        <v>4242</v>
       </c>
       <c r="I416" s="25" t="str">
         <f>VLOOKUP(H416,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28707,7 +28707,7 @@
         <v>PCNT</v>
       </c>
       <c r="H417" s="1" t="s">
-        <v>4240</v>
+        <v>4243</v>
       </c>
       <c r="I417" s="25" t="str">
         <f>VLOOKUP(H417,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28740,7 +28740,7 @@
         <v>PCNT</v>
       </c>
       <c r="H418" s="1" t="s">
-        <v>4241</v>
+        <v>4244</v>
       </c>
       <c r="I418" s="25" t="str">
         <f>VLOOKUP(H418,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28773,7 +28773,7 @@
         <v>PCNT</v>
       </c>
       <c r="H419" s="1" t="s">
-        <v>4242</v>
+        <v>4245</v>
       </c>
       <c r="I419" s="25" t="str">
         <f>VLOOKUP(H419,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28806,7 +28806,7 @@
         <v>PCNT</v>
       </c>
       <c r="H420" s="1" t="s">
-        <v>4243</v>
+        <v>4246</v>
       </c>
       <c r="I420" s="25" t="str">
         <f>VLOOKUP(H420,Source!$A$2:$G$471,3,FALSE)</f>
@@ -28839,11 +28839,11 @@
         <v>PCNT</v>
       </c>
       <c r="H421" s="1" t="s">
-        <v>4244</v>
+        <v>4247</v>
       </c>
       <c r="I421" s="25" t="str">
         <f>VLOOKUP(H421,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>SDG: SE_ADT_ACTS</v>
+        <v>SDG: IT_MOB_OWN</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.35">
@@ -28872,11 +28872,11 @@
         <v>PCNT</v>
       </c>
       <c r="H422" s="1" t="s">
-        <v>4245</v>
+        <v>4248</v>
       </c>
       <c r="I422" s="25" t="str">
         <f>VLOOKUP(H422,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>SDG: SE_ADT_ACTS</v>
+        <v>OECD: PP_ADOL_TVGM</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.35">
@@ -28905,11 +28905,11 @@
         <v>PCNT</v>
       </c>
       <c r="H423" s="1" t="s">
-        <v>4246</v>
+        <v>4249</v>
       </c>
       <c r="I423" s="25" t="str">
         <f>VLOOKUP(H423,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>SDG: SE_ADT_ACTS</v>
+        <v>OECD: PP_ADOL_INET</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.35">
@@ -28938,11 +28938,11 @@
         <v>PCNT</v>
       </c>
       <c r="H424" s="1" t="s">
-        <v>4247</v>
+        <v>4250</v>
       </c>
       <c r="I424" s="25" t="str">
         <f>VLOOKUP(H424,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>SDG: IT_MOB_OWN</v>
+        <v>OECD: PP_ADOL_ITXT</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.35">
@@ -28971,11 +28971,11 @@
         <v>PCNT</v>
       </c>
       <c r="H425" s="1" t="s">
-        <v>4248</v>
+        <v>4251</v>
       </c>
       <c r="I425" s="25" t="str">
         <f>VLOOKUP(H425,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>OECD: PP_ADOL_TVGM</v>
+        <v>OECD: PP_ADOL_WORK_PAID</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.35">
@@ -29004,11 +29004,11 @@
         <v>PCNT</v>
       </c>
       <c r="H426" s="1" t="s">
-        <v>4249</v>
+        <v>4252</v>
       </c>
       <c r="I426" s="25" t="str">
         <f>VLOOKUP(H426,Source!$A$2:$G$471,3,FALSE)</f>
-        <v>OECD: PP_ADOL_INET</v>
+        <v>OECD: PP_ADOL_WORK_HOME</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.35">
@@ -29042,11 +29042,11 @@
         <v>PCNT</v>
       </c>
       <c r="H428" s="1" t="s">
-        <v>4250</v>
+        <v>4253</v>
       </c>
       <c r="I428" s="25" t="str">
         <f>VLOOKUP(H428,Source!$A$2:$G$441,3,FALSE)</f>
-        <v>OECD: PP_ADOL_ITXT</v>
+        <v>Helix: ECD_CHLD_U5_LFT-ALN</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.35">
@@ -29075,11 +29075,11 @@
         <v>BINARY</v>
       </c>
       <c r="H429" s="1" t="s">
-        <v>4251</v>
+        <v>4254</v>
       </c>
       <c r="I429" s="25" t="str">
         <f>VLOOKUP(H429,Source!$A$2:$G$441,3,FALSE)</f>
-        <v>OECD: PP_ADOL_WORK_PAID</v>
+        <v>Helix: GN_MTNTY_LV_BNFTS</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.35">
@@ -29108,11 +29108,11 @@
         <v>BINARY</v>
       </c>
       <c r="H430" s="1" t="s">
-        <v>4252</v>
+        <v>4525</v>
       </c>
       <c r="I430" s="25" t="str">
         <f>VLOOKUP(H430,Source!$A$2:$G$441,3,FALSE)</f>
-        <v>OECD: PP_ADOL_WORK_HOME</v>
+        <v>Helix: GN_PTNTY_LV_BNFTS</v>
       </c>
     </row>
   </sheetData>
@@ -29652,7 +29652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M877"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D240" sqref="D240"/>
     </sheetView>
@@ -44333,7 +44333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
@@ -45720,8 +45720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K438"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="D216" sqref="D216"/>
+    <sheetView topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="C412" sqref="C412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/tmee/data_in/data_dictionary/indicator_dictionary_TM_v8.xlsx
+++ b/tmee/data_in/data_dictionary/indicator_dictionary_TM_v8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16f1c7c3db740efb/UNICEF/TransMonEE/data-etl/tmee/data_in/data_dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="195" documentId="13_ncr:1_{86B4128F-EE39-4FFF-A907-770A6E4095C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5B11B69-D058-422D-92D9-4E5B67173C61}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{86B4128F-EE39-4FFF-A907-770A6E4095C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9CAC17-7079-468B-AAEA-C90BF8EC97C8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Snapshot" sheetId="1" r:id="rId1"/>
@@ -19272,8 +19272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L560"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20988,11 +20988,11 @@
         <v>2020</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>556</v>
+        <v>18</v>
       </c>
       <c r="G50" s="1" t="str">
         <f>VLOOKUP(F50,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GDP_PERC</v>
+        <v>PCNT</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>208</v>
@@ -21022,11 +21022,11 @@
         <v>2021</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>556</v>
+        <v>18</v>
       </c>
       <c r="G51" s="1" t="str">
         <f>VLOOKUP(F51,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GDP_PERC</v>
+        <v>PCNT</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>211</v>
@@ -21056,11 +21056,11 @@
         <v>2021</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>557</v>
+        <v>18</v>
       </c>
       <c r="G52" s="1" t="str">
         <f>VLOOKUP(F52,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GOV_EXP_T</v>
+        <v>PCNT</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>214</v>
@@ -21090,11 +21090,11 @@
         <v>2021</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>570</v>
+        <v>18</v>
       </c>
       <c r="G53" s="1" t="str">
         <f>VLOOKUP(F53,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GOV_EXP_HT</v>
+        <v>PCNT</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>217</v>
@@ -21192,11 +21192,11 @@
         <v>2021</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>570</v>
+        <v>18</v>
       </c>
       <c r="G56" s="1" t="str">
         <f>VLOOKUP(F56,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GOV_EXP_HT</v>
+        <v>PCNT</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>226</v>
@@ -21362,11 +21362,11 @@
         <v>2020</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>570</v>
+        <v>18</v>
       </c>
       <c r="G61" s="1" t="str">
         <f>VLOOKUP(F61,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GOV_EXP_HT</v>
+        <v>PCNT</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>241</v>
@@ -27244,11 +27244,11 @@
         <v>2020</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>556</v>
+        <v>18</v>
       </c>
       <c r="G234" s="1" t="str">
         <f>VLOOKUP(F234,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GDP_PERC</v>
+        <v>PCNT</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>2726</v>
@@ -27278,11 +27278,11 @@
         <v>2020</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>557</v>
+        <v>18</v>
       </c>
       <c r="G235" s="1" t="str">
         <f>VLOOKUP(F235,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GOV_EXP_T</v>
+        <v>PCNT</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>2727</v>
@@ -27346,11 +27346,11 @@
         <v>2020</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>559</v>
+        <v>18</v>
       </c>
       <c r="G237" s="1" t="str">
         <f>VLOOKUP(F237,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GOV_EXP_EDU</v>
+        <v>PCNT</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>2729</v>
@@ -27380,11 +27380,11 @@
         <v>2020</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>559</v>
+        <v>18</v>
       </c>
       <c r="G238" s="1" t="str">
         <f>VLOOKUP(F238,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GOV_EXP_EDU</v>
+        <v>PCNT</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>2730</v>
@@ -27414,11 +27414,11 @@
         <v>2020</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>559</v>
+        <v>18</v>
       </c>
       <c r="G239" s="1" t="str">
         <f>VLOOKUP(F239,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GOV_EXP_EDU</v>
+        <v>PCNT</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>2731</v>
@@ -27448,11 +27448,11 @@
         <v>2020</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>559</v>
+        <v>18</v>
       </c>
       <c r="G240" s="1" t="str">
         <f>VLOOKUP(F240,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GOV_EXP_EDU</v>
+        <v>PCNT</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>2732</v>
@@ -27482,11 +27482,11 @@
         <v>2020</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>559</v>
+        <v>18</v>
       </c>
       <c r="G241" s="1" t="str">
         <f>VLOOKUP(F241,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GOV_EXP_EDU</v>
+        <v>PCNT</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>2797</v>
@@ -27516,11 +27516,11 @@
         <v>2020</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>559</v>
+        <v>18</v>
       </c>
       <c r="G242" s="1" t="str">
         <f>VLOOKUP(F242,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GOV_EXP_EDU</v>
+        <v>PCNT</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>2798</v>
@@ -31902,11 +31902,11 @@
         <v>2021</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>556</v>
+        <v>18</v>
       </c>
       <c r="G371" s="1" t="str">
         <f>VLOOKUP(F371,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GDP_PERC</v>
+        <v>PCNT</v>
       </c>
       <c r="H371" s="1" t="s">
         <v>3751</v>
@@ -33373,11 +33373,11 @@
         <v>2021</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>556</v>
+        <v>18</v>
       </c>
       <c r="G413" s="1" t="str">
         <f>VLOOKUP(F413,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GDP_PERC</v>
+        <v>PCNT</v>
       </c>
       <c r="H413" s="1" t="s">
         <v>4114</v>
@@ -33407,11 +33407,11 @@
         <v>2021</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>556</v>
+        <v>18</v>
       </c>
       <c r="G414" s="1" t="str">
         <f>VLOOKUP(F414,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GDP_PERC</v>
+        <v>PCNT</v>
       </c>
       <c r="H414" s="1" t="s">
         <v>4115</v>
@@ -33441,11 +33441,11 @@
         <v>2021</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>556</v>
+        <v>18</v>
       </c>
       <c r="G415" s="1" t="str">
         <f>VLOOKUP(F415,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GDP_PERC</v>
+        <v>PCNT</v>
       </c>
       <c r="H415" s="1" t="s">
         <v>4116</v>
@@ -33475,11 +33475,11 @@
         <v>2021</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>556</v>
+        <v>18</v>
       </c>
       <c r="G416" s="1" t="str">
         <f>VLOOKUP(F416,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GDP_PERC</v>
+        <v>PCNT</v>
       </c>
       <c r="H416" s="1" t="s">
         <v>4117</v>
@@ -33509,11 +33509,11 @@
         <v>2021</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>556</v>
+        <v>18</v>
       </c>
       <c r="G417" s="1" t="str">
         <f>VLOOKUP(F417,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GDP_PERC</v>
+        <v>PCNT</v>
       </c>
       <c r="H417" s="1" t="s">
         <v>4118</v>
@@ -33543,11 +33543,11 @@
         <v>2021</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>556</v>
+        <v>18</v>
       </c>
       <c r="G418" s="1" t="str">
         <f>VLOOKUP(F418,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GDP_PERC</v>
+        <v>PCNT</v>
       </c>
       <c r="H418" s="1" t="s">
         <v>4119</v>
@@ -33577,11 +33577,11 @@
         <v>2021</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>556</v>
+        <v>18</v>
       </c>
       <c r="G419" s="1" t="str">
         <f>VLOOKUP(F419,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GDP_PERC</v>
+        <v>PCNT</v>
       </c>
       <c r="H419" s="1" t="s">
         <v>4120</v>
@@ -33611,11 +33611,11 @@
         <v>2021</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>556</v>
+        <v>18</v>
       </c>
       <c r="G420" s="1" t="str">
         <f>VLOOKUP(F420,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GDP_PERC</v>
+        <v>PCNT</v>
       </c>
       <c r="H420" s="1" t="s">
         <v>4121</v>
@@ -33645,11 +33645,11 @@
         <v>2021</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>557</v>
+        <v>18</v>
       </c>
       <c r="G421" s="1" t="str">
         <f>VLOOKUP(F421,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GOV_EXP_T</v>
+        <v>PCNT</v>
       </c>
       <c r="H421" s="1" t="s">
         <v>4122</v>
@@ -33781,11 +33781,11 @@
         <v>2021</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>556</v>
+        <v>18</v>
       </c>
       <c r="G425" s="1" t="str">
         <f>VLOOKUP(F425,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GDP_PERC</v>
+        <v>PCNT</v>
       </c>
       <c r="H425" s="1" t="s">
         <v>4126</v>
@@ -35889,11 +35889,11 @@
         <v>2021</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>556</v>
+        <v>18</v>
       </c>
       <c r="G487" s="1" t="str">
         <f>VLOOKUP(F487,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GDP_PERC</v>
+        <v>PCNT</v>
       </c>
       <c r="H487" s="1" t="s">
         <v>4578</v>
@@ -35923,11 +35923,11 @@
         <v>2021</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>557</v>
+        <v>18</v>
       </c>
       <c r="G488" s="1" t="str">
         <f>VLOOKUP(F488,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GOV_EXP_T</v>
+        <v>PCNT</v>
       </c>
       <c r="H488" s="1" t="s">
         <v>4579</v>
@@ -35957,11 +35957,11 @@
         <v>2021</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>556</v>
+        <v>18</v>
       </c>
       <c r="G489" s="1" t="str">
         <f>VLOOKUP(F489,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GDP_PERC</v>
+        <v>PCNT</v>
       </c>
       <c r="H489" s="1" t="s">
         <v>4580</v>
@@ -35991,11 +35991,11 @@
         <v>2021</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>557</v>
+        <v>18</v>
       </c>
       <c r="G490" s="1" t="str">
         <f>VLOOKUP(F490,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>GOV_EXP_T</v>
+        <v>PCNT</v>
       </c>
       <c r="H490" s="1" t="s">
         <v>4581</v>
@@ -38851,9 +38851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M1145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A410" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E427" sqref="E427"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E474" sqref="E474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -60922,8 +60922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
